--- a/PythonResources/Data/Consumption/Sympheny/futu_1359_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/futu_1359_hea.xlsx
@@ -615,7 +615,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>249.1508266654788</v>
+        <v>249.1508266654787</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -655,7 +655,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>205.9964092936344</v>
+        <v>205.9964092936343</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -671,7 +671,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>169.3223787286696</v>
+        <v>169.3223787286695</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -727,7 +727,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>19.41147232442261</v>
+        <v>19.4114723244226</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -807,7 +807,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>235.9427010950893</v>
+        <v>235.9427010950892</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -839,7 +839,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>93.38679339839902</v>
+        <v>93.38679339839901</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -847,7 +847,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>86.85277459144433</v>
+        <v>86.85277459144432</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -935,7 +935,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>0.9142673429183196</v>
+        <v>0.9142673429183192</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -959,7 +959,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>11.03066636734345</v>
+        <v>11.03066636734344</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -999,7 +999,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>173.9693131176839</v>
+        <v>173.9693131176838</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1023,7 +1023,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>74.28969837714844</v>
+        <v>74.28969837714843</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1079,7 +1079,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>0.8688677083192904</v>
+        <v>0.8688677083192903</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1087,7 +1087,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>0.8052273322739794</v>
+        <v>0.8052273322739792</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1103,7 +1103,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>0.6775714492538705</v>
+        <v>0.6775714492538704</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1135,7 +1135,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>0.7530636181026464</v>
+        <v>0.7530636181026463</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1151,7 +1151,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>6.288718347595148</v>
+        <v>6.288718347595147</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1199,7 +1199,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>127.4856087466466</v>
+        <v>127.4856087466465</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1223,7 +1223,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>91.20370723141066</v>
+        <v>91.20370723141065</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1247,7 +1247,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>82.86554311045673</v>
+        <v>82.86554311045671</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1367,7 +1367,7 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>25.81944127764906</v>
+        <v>25.81944127764905</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1375,7 +1375,7 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>25.41192599839046</v>
+        <v>25.41192599839045</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1495,7 +1495,7 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>58.37828554614668</v>
+        <v>58.37828554614667</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1687,7 +1687,7 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>81.54818879167398</v>
+        <v>81.54818879167397</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1863,7 +1863,7 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <v>2.316682599962136</v>
+        <v>2.316682599962135</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -2079,7 +2079,7 @@
         <v>217</v>
       </c>
       <c r="B217">
-        <v>16.54025535865741</v>
+        <v>16.5402553586574</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2207,7 +2207,7 @@
         <v>233</v>
       </c>
       <c r="B233">
-        <v>89.78963946986967</v>
+        <v>89.78963946986966</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2319,7 +2319,7 @@
         <v>247</v>
       </c>
       <c r="B247">
-        <v>291.5658258067807</v>
+        <v>291.5658258067806</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2511,7 +2511,7 @@
         <v>271</v>
       </c>
       <c r="B271">
-        <v>289.8739267005887</v>
+        <v>289.8739267005886</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2615,7 +2615,7 @@
         <v>284</v>
       </c>
       <c r="B284">
-        <v>0.7244803997020055</v>
+        <v>0.7244803997020054</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2687,7 +2687,7 @@
         <v>293</v>
       </c>
       <c r="B293">
-        <v>0.5238058673994225</v>
+        <v>0.5238058673994224</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -2823,7 +2823,7 @@
         <v>310</v>
       </c>
       <c r="B310">
-        <v>0.4381060342740719</v>
+        <v>0.4381060342740718</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -2991,7 +2991,7 @@
         <v>331</v>
       </c>
       <c r="B331">
-        <v>0.4780604089747731</v>
+        <v>0.478060408974773</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3055,7 +3055,7 @@
         <v>339</v>
       </c>
       <c r="B339">
-        <v>4.241646449649517</v>
+        <v>4.241646449649516</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3095,7 +3095,7 @@
         <v>344</v>
       </c>
       <c r="B344">
-        <v>6.873863983386389</v>
+        <v>6.873863983386388</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3127,7 +3127,7 @@
         <v>348</v>
       </c>
       <c r="B348">
-        <v>0.7063627480919611</v>
+        <v>0.706362748091961</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3327,7 +3327,7 @@
         <v>373</v>
       </c>
       <c r="B373">
-        <v>93.23967173699104</v>
+        <v>93.239671736991</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3383,7 +3383,7 @@
         <v>380</v>
       </c>
       <c r="B380">
-        <v>0.9545616800238678</v>
+        <v>0.9545616800238677</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -3495,7 +3495,7 @@
         <v>394</v>
       </c>
       <c r="B394">
-        <v>204.8651550844016</v>
+        <v>204.8651550844015</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -3543,7 +3543,7 @@
         <v>400</v>
       </c>
       <c r="B400">
-        <v>68.27500145070165</v>
+        <v>68.27500145070164</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3855,7 +3855,7 @@
         <v>439</v>
       </c>
       <c r="B439">
-        <v>291.1766274674384</v>
+        <v>291.1766274674383</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -3879,7 +3879,7 @@
         <v>442</v>
       </c>
       <c r="B442">
-        <v>233.3648482390241</v>
+        <v>233.364848239024</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3975,7 +3975,7 @@
         <v>454</v>
       </c>
       <c r="B454">
-        <v>2.22998339459495</v>
+        <v>2.229983394594949</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -4151,7 +4151,7 @@
         <v>476</v>
       </c>
       <c r="B476">
-        <v>38.18832862172794</v>
+        <v>38.18832862172793</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -4159,7 +4159,7 @@
         <v>477</v>
       </c>
       <c r="B477">
-        <v>45.18393431457425</v>
+        <v>45.18393431457424</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -4175,7 +4175,7 @@
         <v>479</v>
       </c>
       <c r="B479">
-        <v>56.86017756588091</v>
+        <v>56.8601775658809</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -4191,7 +4191,7 @@
         <v>481</v>
       </c>
       <c r="B481">
-        <v>66.96028477126686</v>
+        <v>66.96028477126684</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4239,7 +4239,7 @@
         <v>487</v>
       </c>
       <c r="B487">
-        <v>92.30711969197064</v>
+        <v>92.3071196919706</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -4335,7 +4335,7 @@
         <v>499</v>
       </c>
       <c r="B499">
-        <v>33.94378076879568</v>
+        <v>33.94378076879567</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -4399,7 +4399,7 @@
         <v>507</v>
       </c>
       <c r="B507">
-        <v>82.92591574442096</v>
+        <v>82.92591574442095</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -4407,7 +4407,7 @@
         <v>508</v>
       </c>
       <c r="B508">
-        <v>85.29773966030723</v>
+        <v>85.29773966030722</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -4415,7 +4415,7 @@
         <v>509</v>
       </c>
       <c r="B509">
-        <v>87.91457096451438</v>
+        <v>87.91457096451437</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -4511,7 +4511,7 @@
         <v>521</v>
       </c>
       <c r="B521">
-        <v>130.5950924668435</v>
+        <v>130.5950924668434</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -4559,7 +4559,7 @@
         <v>527</v>
       </c>
       <c r="B527">
-        <v>2.151554653938787</v>
+        <v>2.151554653938786</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -5023,7 +5023,7 @@
         <v>585</v>
       </c>
       <c r="B585">
-        <v>211.9017907226605</v>
+        <v>211.9017907226604</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -5063,7 +5063,7 @@
         <v>590</v>
       </c>
       <c r="B590">
-        <v>52.22350066321977</v>
+        <v>52.22350066321976</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -5135,7 +5135,7 @@
         <v>599</v>
       </c>
       <c r="B599">
-        <v>0.4391786742755724</v>
+        <v>0.4391786742755723</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -5143,7 +5143,7 @@
         <v>600</v>
       </c>
       <c r="B600">
-        <v>0.4069643057059173</v>
+        <v>0.4069643057059172</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -5167,7 +5167,7 @@
         <v>603</v>
       </c>
       <c r="B603">
-        <v>0.4882416968578682</v>
+        <v>0.4882416968578681</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -5183,7 +5183,7 @@
         <v>605</v>
       </c>
       <c r="B605">
-        <v>0.4902844019973378</v>
+        <v>0.4902844019973377</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -5303,7 +5303,7 @@
         <v>620</v>
       </c>
       <c r="B620">
-        <v>0.5725787496534436</v>
+        <v>0.5725787496534435</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -5455,7 +5455,7 @@
         <v>639</v>
       </c>
       <c r="B639">
-        <v>0.9284812882933948</v>
+        <v>0.9284812882933946</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -5495,7 +5495,7 @@
         <v>644</v>
       </c>
       <c r="B644">
-        <v>1.140192875911964</v>
+        <v>1.140192875911963</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -5559,7 +5559,7 @@
         <v>652</v>
       </c>
       <c r="B652">
-        <v>33.86992686705302</v>
+        <v>33.86992686705301</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -5647,7 +5647,7 @@
         <v>663</v>
       </c>
       <c r="B663">
-        <v>7.821772950832645</v>
+        <v>7.821772950832644</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -5887,7 +5887,7 @@
         <v>693</v>
       </c>
       <c r="B693">
-        <v>0.8605210451382153</v>
+        <v>0.8605210451382151</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -6007,7 +6007,7 @@
         <v>708</v>
       </c>
       <c r="B708">
-        <v>95.74660140170018</v>
+        <v>95.74660140170016</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -6223,7 +6223,7 @@
         <v>735</v>
       </c>
       <c r="B735">
-        <v>9.44195757386416</v>
+        <v>9.441957573864158</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -6255,7 +6255,7 @@
         <v>739</v>
       </c>
       <c r="B739">
-        <v>0.8205256404921015</v>
+        <v>0.8205256404921014</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -6335,7 +6335,7 @@
         <v>749</v>
       </c>
       <c r="B749">
-        <v>1.151423358113467</v>
+        <v>1.151423358113466</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -6591,7 +6591,7 @@
         <v>781</v>
       </c>
       <c r="B781">
-        <v>83.34119740620409</v>
+        <v>83.34119740620407</v>
       </c>
     </row>
     <row r="782" spans="1:2">
@@ -6599,7 +6599,7 @@
         <v>782</v>
       </c>
       <c r="B782">
-        <v>70.31506895082327</v>
+        <v>70.31506895082326</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -6911,7 +6911,7 @@
         <v>821</v>
       </c>
       <c r="B821">
-        <v>67.01655441068984</v>
+        <v>67.01655441068982</v>
       </c>
     </row>
     <row r="822" spans="1:2">
@@ -6943,7 +6943,7 @@
         <v>825</v>
       </c>
       <c r="B825">
-        <v>79.43133667942308</v>
+        <v>79.43133667942307</v>
       </c>
     </row>
     <row r="826" spans="1:2">
@@ -7175,7 +7175,7 @@
         <v>854</v>
       </c>
       <c r="B854">
-        <v>71.12834108310851</v>
+        <v>71.1283410831085</v>
       </c>
     </row>
     <row r="855" spans="1:2">
@@ -7191,7 +7191,7 @@
         <v>856</v>
       </c>
       <c r="B856">
-        <v>49.40298498714298</v>
+        <v>49.40298498714297</v>
       </c>
     </row>
     <row r="857" spans="1:2">
@@ -7199,7 +7199,7 @@
         <v>857</v>
       </c>
       <c r="B857">
-        <v>51.56321161311576</v>
+        <v>51.56321161311575</v>
       </c>
     </row>
     <row r="858" spans="1:2">
@@ -7207,7 +7207,7 @@
         <v>858</v>
       </c>
       <c r="B858">
-        <v>71.95831826459744</v>
+        <v>71.95831826459742</v>
       </c>
     </row>
     <row r="859" spans="1:2">
@@ -7239,7 +7239,7 @@
         <v>862</v>
       </c>
       <c r="B862">
-        <v>0.5353294206395866</v>
+        <v>0.5353294206395864</v>
       </c>
     </row>
     <row r="863" spans="1:2">
@@ -7359,7 +7359,7 @@
         <v>877</v>
       </c>
       <c r="B877">
-        <v>32.3233909960371</v>
+        <v>32.32339099603709</v>
       </c>
     </row>
     <row r="878" spans="1:2">
@@ -7591,7 +7591,7 @@
         <v>906</v>
       </c>
       <c r="B906">
-        <v>71.36543555338554</v>
+        <v>71.36543555338552</v>
       </c>
     </row>
     <row r="907" spans="1:2">
@@ -7607,7 +7607,7 @@
         <v>908</v>
       </c>
       <c r="B908">
-        <v>0.889121847801176</v>
+        <v>0.8891218478011759</v>
       </c>
     </row>
     <row r="909" spans="1:2">
@@ -7751,7 +7751,7 @@
         <v>926</v>
       </c>
       <c r="B926">
-        <v>64.55739532528249</v>
+        <v>64.55739532528247</v>
       </c>
     </row>
     <row r="927" spans="1:2">
@@ -7903,7 +7903,7 @@
         <v>945</v>
       </c>
       <c r="B945">
-        <v>191.3091541911211</v>
+        <v>191.309154191121</v>
       </c>
     </row>
     <row r="946" spans="1:2">
@@ -7959,7 +7959,7 @@
         <v>952</v>
       </c>
       <c r="B952">
-        <v>38.09630431558828</v>
+        <v>38.09630431558827</v>
       </c>
     </row>
     <row r="953" spans="1:2">
@@ -7991,7 +7991,7 @@
         <v>956</v>
       </c>
       <c r="B956">
-        <v>0.8970464886865788</v>
+        <v>0.8970464886865787</v>
       </c>
     </row>
     <row r="957" spans="1:2">
@@ -8071,7 +8071,7 @@
         <v>966</v>
       </c>
       <c r="B966">
-        <v>30.5189526109992</v>
+        <v>30.51895261099919</v>
       </c>
     </row>
     <row r="967" spans="1:2">
@@ -8175,7 +8175,7 @@
         <v>979</v>
       </c>
       <c r="B979">
-        <v>25.22450706916653</v>
+        <v>25.22450706916652</v>
       </c>
     </row>
     <row r="980" spans="1:2">
@@ -8223,7 +8223,7 @@
         <v>985</v>
       </c>
       <c r="B985">
-        <v>71.40851699606876</v>
+        <v>71.40851699606874</v>
       </c>
     </row>
     <row r="986" spans="1:2">
@@ -8287,7 +8287,7 @@
         <v>993</v>
       </c>
       <c r="B993">
-        <v>102.5892240123653</v>
+        <v>102.5892240123652</v>
       </c>
     </row>
     <row r="994" spans="1:2">
@@ -8399,7 +8399,7 @@
         <v>1007</v>
       </c>
       <c r="B1007">
-        <v>91.49384755968541</v>
+        <v>91.49384755968538</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
@@ -8583,7 +8583,7 @@
         <v>1030</v>
       </c>
       <c r="B1030">
-        <v>2.122247550072653</v>
+        <v>2.122247550072652</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
@@ -8775,7 +8775,7 @@
         <v>1054</v>
       </c>
       <c r="B1054">
-        <v>0.5914290788601413</v>
+        <v>0.5914290788601412</v>
       </c>
     </row>
     <row r="1055" spans="1:2">
@@ -8815,7 +8815,7 @@
         <v>1059</v>
       </c>
       <c r="B1059">
-        <v>0.7253742663699225</v>
+        <v>0.7253742663699224</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
@@ -8879,7 +8879,7 @@
         <v>1067</v>
       </c>
       <c r="B1067">
-        <v>70.881282197517</v>
+        <v>70.88128219751698</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
@@ -8887,7 +8887,7 @@
         <v>1068</v>
       </c>
       <c r="B1068">
-        <v>47.22957016443044</v>
+        <v>47.22957016443043</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
@@ -8927,7 +8927,7 @@
         <v>1073</v>
       </c>
       <c r="B1073">
-        <v>12.50926837159767</v>
+        <v>12.50926837159766</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
@@ -8975,7 +8975,7 @@
         <v>1079</v>
       </c>
       <c r="B1079">
-        <v>0.5379787828290852</v>
+        <v>0.5379787828290851</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
@@ -8983,7 +8983,7 @@
         <v>1080</v>
       </c>
       <c r="B1080">
-        <v>0.5134633904450636</v>
+        <v>0.5134633904450635</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
@@ -9119,7 +9119,7 @@
         <v>1097</v>
       </c>
       <c r="B1097">
-        <v>10.67895181384597</v>
+        <v>10.67895181384596</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
@@ -9151,7 +9151,7 @@
         <v>1101</v>
       </c>
       <c r="B1101">
-        <v>0.5548596746559786</v>
+        <v>0.5548596746559785</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
@@ -9287,7 +9287,7 @@
         <v>1118</v>
       </c>
       <c r="B1118">
-        <v>50.39913344755289</v>
+        <v>50.39913344755288</v>
       </c>
     </row>
     <row r="1119" spans="1:2">
@@ -9311,7 +9311,7 @@
         <v>1121</v>
       </c>
       <c r="B1121">
-        <v>41.54076823297507</v>
+        <v>41.54076823297506</v>
       </c>
     </row>
     <row r="1122" spans="1:2">
@@ -9319,7 +9319,7 @@
         <v>1122</v>
       </c>
       <c r="B1122">
-        <v>61.97573254571469</v>
+        <v>61.97573254571468</v>
       </c>
     </row>
     <row r="1123" spans="1:2">
@@ -9343,7 +9343,7 @@
         <v>1125</v>
       </c>
       <c r="B1125">
-        <v>0.7206763376201812</v>
+        <v>0.7206763376201811</v>
       </c>
     </row>
     <row r="1126" spans="1:2">
@@ -9391,7 +9391,7 @@
         <v>1131</v>
       </c>
       <c r="B1131">
-        <v>0.6844087965858398</v>
+        <v>0.6844087965858396</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
@@ -9431,7 +9431,7 @@
         <v>1136</v>
       </c>
       <c r="B1136">
-        <v>6.878611734212703</v>
+        <v>6.878611734212702</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
@@ -9463,7 +9463,7 @@
         <v>1140</v>
       </c>
       <c r="B1140">
-        <v>0.5503141428463412</v>
+        <v>0.5503141428463411</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
@@ -9679,7 +9679,7 @@
         <v>1167</v>
       </c>
       <c r="B1167">
-        <v>0.8017866782800951</v>
+        <v>0.801786678280095</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
@@ -9815,7 +9815,7 @@
         <v>1184</v>
       </c>
       <c r="B1184">
-        <v>5.257811662</v>
+        <v>5.257811661999999</v>
       </c>
     </row>
     <row r="1185" spans="1:2">
@@ -9919,7 +9919,7 @@
         <v>1197</v>
       </c>
       <c r="B1197">
-        <v>0.7078632718099072</v>
+        <v>0.707863271809907</v>
       </c>
     </row>
     <row r="1198" spans="1:2">
@@ -9991,7 +9991,7 @@
         <v>1206</v>
       </c>
       <c r="B1206">
-        <v>46.05259687316648</v>
+        <v>46.05259687316647</v>
       </c>
     </row>
     <row r="1207" spans="1:2">
@@ -10175,7 +10175,7 @@
         <v>1229</v>
       </c>
       <c r="B1229">
-        <v>9.049037232330894</v>
+        <v>9.049037232330893</v>
       </c>
     </row>
     <row r="1230" spans="1:2">
@@ -10263,7 +10263,7 @@
         <v>1240</v>
       </c>
       <c r="B1240">
-        <v>57.83815562189382</v>
+        <v>57.83815562189381</v>
       </c>
     </row>
     <row r="1241" spans="1:2">
@@ -10367,7 +10367,7 @@
         <v>1253</v>
       </c>
       <c r="B1253">
-        <v>14.61844202263564</v>
+        <v>14.61844202263563</v>
       </c>
     </row>
     <row r="1254" spans="1:2">
@@ -10463,7 +10463,7 @@
         <v>1265</v>
       </c>
       <c r="B1265">
-        <v>57.86365280225736</v>
+        <v>57.86365280225735</v>
       </c>
     </row>
     <row r="1266" spans="1:2">
@@ -10623,7 +10623,7 @@
         <v>1285</v>
       </c>
       <c r="B1285">
-        <v>77.39800981319067</v>
+        <v>77.39800981319065</v>
       </c>
     </row>
     <row r="1286" spans="1:2">
@@ -10767,7 +10767,7 @@
         <v>1303</v>
       </c>
       <c r="B1303">
-        <v>9.231913560455574</v>
+        <v>9.231913560455572</v>
       </c>
     </row>
     <row r="1304" spans="1:2">
@@ -10799,7 +10799,7 @@
         <v>1307</v>
       </c>
       <c r="B1307">
-        <v>0.907720135914625</v>
+        <v>0.9077201359146247</v>
       </c>
     </row>
     <row r="1308" spans="1:2">
@@ -10815,7 +10815,7 @@
         <v>1309</v>
       </c>
       <c r="B1309">
-        <v>1.245771717589714</v>
+        <v>1.245771717589713</v>
       </c>
     </row>
     <row r="1310" spans="1:2">
@@ -10895,7 +10895,7 @@
         <v>1319</v>
       </c>
       <c r="B1319">
-        <v>0.5389517786774408</v>
+        <v>0.5389517786774407</v>
       </c>
     </row>
     <row r="1320" spans="1:2">
@@ -10903,7 +10903,7 @@
         <v>1320</v>
       </c>
       <c r="B1320">
-        <v>0.6636388520759101</v>
+        <v>0.66363885207591</v>
       </c>
     </row>
     <row r="1321" spans="1:2">
@@ -10983,7 +10983,7 @@
         <v>1330</v>
       </c>
       <c r="B1330">
-        <v>6.746729766815098</v>
+        <v>6.746729766815097</v>
       </c>
     </row>
     <row r="1331" spans="1:2">
@@ -11103,7 +11103,7 @@
         <v>1345</v>
       </c>
       <c r="B1345">
-        <v>2.797782155607827</v>
+        <v>2.797782155607826</v>
       </c>
     </row>
     <row r="1346" spans="1:2">
@@ -11231,7 +11231,7 @@
         <v>1361</v>
       </c>
       <c r="B1361">
-        <v>36.28512529666117</v>
+        <v>36.28512529666116</v>
       </c>
     </row>
     <row r="1362" spans="1:2">
@@ -11239,7 +11239,7 @@
         <v>1362</v>
       </c>
       <c r="B1362">
-        <v>49.43375744620242</v>
+        <v>49.43375744620241</v>
       </c>
     </row>
     <row r="1363" spans="1:2">
@@ -11279,7 +11279,7 @@
         <v>1367</v>
       </c>
       <c r="B1367">
-        <v>0.4370158100102517</v>
+        <v>0.4370158100102516</v>
       </c>
     </row>
     <row r="1368" spans="1:2">
@@ -11359,7 +11359,7 @@
         <v>1377</v>
       </c>
       <c r="B1377">
-        <v>133.9026922091754</v>
+        <v>133.9026922091753</v>
       </c>
     </row>
     <row r="1378" spans="1:2">
@@ -11471,7 +11471,7 @@
         <v>1391</v>
       </c>
       <c r="B1391">
-        <v>0.4683509654639227</v>
+        <v>0.4683509654639226</v>
       </c>
     </row>
     <row r="1392" spans="1:2">
@@ -11567,7 +11567,7 @@
         <v>1403</v>
       </c>
       <c r="B1403">
-        <v>54.70727771587467</v>
+        <v>54.70727771587466</v>
       </c>
     </row>
     <row r="1404" spans="1:2">
@@ -11743,7 +11743,7 @@
         <v>1425</v>
       </c>
       <c r="B1425">
-        <v>225.0457337355832</v>
+        <v>225.0457337355831</v>
       </c>
     </row>
     <row r="1426" spans="1:2">
@@ -11959,7 +11959,7 @@
         <v>1452</v>
       </c>
       <c r="B1452">
-        <v>96.86671891146383</v>
+        <v>96.86671891146382</v>
       </c>
     </row>
     <row r="1453" spans="1:2">
@@ -12159,7 +12159,7 @@
         <v>1477</v>
       </c>
       <c r="B1477">
-        <v>3.005326273056632</v>
+        <v>3.005326273056631</v>
       </c>
     </row>
     <row r="1478" spans="1:2">
@@ -12191,7 +12191,7 @@
         <v>1481</v>
       </c>
       <c r="B1481">
-        <v>0.4496413103557824</v>
+        <v>0.4496413103557823</v>
       </c>
     </row>
     <row r="1482" spans="1:2">
@@ -12367,7 +12367,7 @@
         <v>1503</v>
       </c>
       <c r="B1503">
-        <v>1.198241456539617</v>
+        <v>1.198241456539616</v>
       </c>
     </row>
     <row r="1504" spans="1:2">
@@ -12407,7 +12407,7 @@
         <v>1508</v>
       </c>
       <c r="B1508">
-        <v>2.738857292574577</v>
+        <v>2.738857292574576</v>
       </c>
     </row>
     <row r="1509" spans="1:2">
@@ -12639,7 +12639,7 @@
         <v>1537</v>
       </c>
       <c r="B1537">
-        <v>1.327767132786385</v>
+        <v>1.327767132786384</v>
       </c>
     </row>
     <row r="1538" spans="1:2">
@@ -12743,7 +12743,7 @@
         <v>1550</v>
       </c>
       <c r="B1550">
-        <v>33.76793814559887</v>
+        <v>33.76793814559886</v>
       </c>
     </row>
     <row r="1551" spans="1:2">
@@ -12799,7 +12799,7 @@
         <v>1557</v>
       </c>
       <c r="B1557">
-        <v>0.7538842170108982</v>
+        <v>0.7538842170108981</v>
       </c>
     </row>
     <row r="1558" spans="1:2">
@@ -12863,7 +12863,7 @@
         <v>1565</v>
       </c>
       <c r="B1565">
-        <v>0.8488773327722</v>
+        <v>0.8488773327721999</v>
       </c>
     </row>
     <row r="1566" spans="1:2">
@@ -12919,7 +12919,7 @@
         <v>1572</v>
       </c>
       <c r="B1572">
-        <v>49.47420124953769</v>
+        <v>49.47420124953768</v>
       </c>
     </row>
     <row r="1573" spans="1:2">
@@ -13015,7 +13015,7 @@
         <v>1584</v>
       </c>
       <c r="B1584">
-        <v>0.4546850629311442</v>
+        <v>0.4546850629311441</v>
       </c>
     </row>
     <row r="1585" spans="1:2">
@@ -13023,7 +13023,7 @@
         <v>1585</v>
       </c>
       <c r="B1585">
-        <v>0.398755385913013</v>
+        <v>0.3987553859130129</v>
       </c>
     </row>
     <row r="1586" spans="1:2">
@@ -13039,7 +13039,7 @@
         <v>1587</v>
       </c>
       <c r="B1587">
-        <v>0.6218938133289881</v>
+        <v>0.621893813328988</v>
       </c>
     </row>
     <row r="1588" spans="1:2">
@@ -13047,7 +13047,7 @@
         <v>1588</v>
       </c>
       <c r="B1588">
-        <v>0.6128613639174455</v>
+        <v>0.6128613639174454</v>
       </c>
     </row>
     <row r="1589" spans="1:2">
@@ -13255,7 +13255,7 @@
         <v>1614</v>
       </c>
       <c r="B1614">
-        <v>0.4334139669451037</v>
+        <v>0.4334139669451036</v>
       </c>
     </row>
     <row r="1615" spans="1:2">
@@ -13367,7 +13367,7 @@
         <v>1628</v>
       </c>
       <c r="B1628">
-        <v>0.5997552270685101</v>
+        <v>0.59975522706851</v>
       </c>
     </row>
     <row r="1629" spans="1:2">
@@ -13503,7 +13503,7 @@
         <v>1645</v>
       </c>
       <c r="B1645">
-        <v>0.2808218415294557</v>
+        <v>0.2808218415294556</v>
       </c>
     </row>
     <row r="1646" spans="1:2">
@@ -13775,7 +13775,7 @@
         <v>1679</v>
       </c>
       <c r="B1679">
-        <v>0.3981135603383447</v>
+        <v>0.3981135603383446</v>
       </c>
     </row>
     <row r="1680" spans="1:2">
@@ -13799,7 +13799,7 @@
         <v>1682</v>
       </c>
       <c r="B1682">
-        <v>0.389945670490853</v>
+        <v>0.3899456704908529</v>
       </c>
     </row>
     <row r="1683" spans="1:2">
@@ -13815,7 +13815,7 @@
         <v>1684</v>
       </c>
       <c r="B1684">
-        <v>3.459820839812646</v>
+        <v>3.459820839812645</v>
       </c>
     </row>
     <row r="1685" spans="1:2">
@@ -13831,7 +13831,7 @@
         <v>1686</v>
       </c>
       <c r="B1686">
-        <v>287.6421907411826</v>
+        <v>287.6421907411825</v>
       </c>
     </row>
     <row r="1687" spans="1:2">
@@ -13911,7 +13911,7 @@
         <v>1696</v>
       </c>
       <c r="B1696">
-        <v>7.263736386117578</v>
+        <v>7.263736386117577</v>
       </c>
     </row>
     <row r="1697" spans="1:2">
@@ -14047,7 +14047,7 @@
         <v>1713</v>
       </c>
       <c r="B1713">
-        <v>55.71368366263773</v>
+        <v>55.71368366263772</v>
       </c>
     </row>
     <row r="1714" spans="1:2">
@@ -14095,7 +14095,7 @@
         <v>1719</v>
       </c>
       <c r="B1719">
-        <v>5.746771382902588</v>
+        <v>5.746771382902587</v>
       </c>
     </row>
     <row r="1720" spans="1:2">
@@ -14255,7 +14255,7 @@
         <v>1739</v>
       </c>
       <c r="B1739">
-        <v>6.942764984575672</v>
+        <v>6.942764984575671</v>
       </c>
     </row>
     <row r="1740" spans="1:2">
@@ -14367,7 +14367,7 @@
         <v>1753</v>
       </c>
       <c r="B1753">
-        <v>0.4197480644123252</v>
+        <v>0.4197480644123251</v>
       </c>
     </row>
     <row r="1754" spans="1:2">
@@ -14535,7 +14535,7 @@
         <v>1774</v>
       </c>
       <c r="B1774">
-        <v>0.4280273212545082</v>
+        <v>0.4280273212545081</v>
       </c>
     </row>
     <row r="1775" spans="1:2">
@@ -14543,7 +14543,7 @@
         <v>1775</v>
       </c>
       <c r="B1775">
-        <v>0.4076559533571581</v>
+        <v>0.407655953357158</v>
       </c>
     </row>
     <row r="1776" spans="1:2">
@@ -14687,7 +14687,7 @@
         <v>1793</v>
       </c>
       <c r="B1793">
-        <v>2.692428978629847</v>
+        <v>2.692428978629846</v>
       </c>
     </row>
     <row r="1794" spans="1:2">
@@ -14807,7 +14807,7 @@
         <v>1808</v>
       </c>
       <c r="B1808">
-        <v>0.3803739703681735</v>
+        <v>0.3803739703681734</v>
       </c>
     </row>
     <row r="1809" spans="1:2">
@@ -14927,7 +14927,7 @@
         <v>1823</v>
       </c>
       <c r="B1823">
-        <v>0.4874914349988952</v>
+        <v>0.4874914349988951</v>
       </c>
     </row>
     <row r="1824" spans="1:2">
@@ -14935,7 +14935,7 @@
         <v>1824</v>
       </c>
       <c r="B1824">
-        <v>0.5489923924619785</v>
+        <v>0.5489923924619784</v>
       </c>
     </row>
     <row r="1825" spans="1:2">
@@ -14951,7 +14951,7 @@
         <v>1826</v>
       </c>
       <c r="B1826">
-        <v>0.6355362701786738</v>
+        <v>0.6355362701786736</v>
       </c>
     </row>
     <row r="1827" spans="1:2">
@@ -15055,7 +15055,7 @@
         <v>1839</v>
       </c>
       <c r="B1839">
-        <v>1.106223011820728</v>
+        <v>1.106223011820727</v>
       </c>
     </row>
     <row r="1840" spans="1:2">
@@ -15063,7 +15063,7 @@
         <v>1840</v>
       </c>
       <c r="B1840">
-        <v>0.9453533879891284</v>
+        <v>0.9453533879891282</v>
       </c>
     </row>
     <row r="1841" spans="1:2">
@@ -15167,7 +15167,7 @@
         <v>1853</v>
       </c>
       <c r="B1853">
-        <v>7.427621710937001</v>
+        <v>7.427621710937</v>
       </c>
     </row>
     <row r="1854" spans="1:2">
@@ -15215,7 +15215,7 @@
         <v>1859</v>
       </c>
       <c r="B1859">
-        <v>67.35505146034369</v>
+        <v>67.35505146034367</v>
       </c>
     </row>
     <row r="1860" spans="1:2">
@@ -15591,7 +15591,7 @@
         <v>1906</v>
       </c>
       <c r="B1906">
-        <v>38.827809628087</v>
+        <v>38.82780962808699</v>
       </c>
     </row>
     <row r="1907" spans="1:2">
@@ -15639,7 +15639,7 @@
         <v>1912</v>
       </c>
       <c r="B1912">
-        <v>4.632427372600555</v>
+        <v>4.632427372600554</v>
       </c>
     </row>
     <row r="1913" spans="1:2">
@@ -15695,7 +15695,7 @@
         <v>1919</v>
       </c>
       <c r="B1919">
-        <v>0.4521441370259503</v>
+        <v>0.4521441370259502</v>
       </c>
     </row>
     <row r="1920" spans="1:2">
@@ -15767,7 +15767,7 @@
         <v>1928</v>
       </c>
       <c r="B1928">
-        <v>97.66738898908665</v>
+        <v>97.66738898908662</v>
       </c>
     </row>
     <row r="1929" spans="1:2">
@@ -15879,7 +15879,7 @@
         <v>1942</v>
       </c>
       <c r="B1942">
-        <v>0.5097794874890905</v>
+        <v>0.5097794874890904</v>
       </c>
     </row>
     <row r="1943" spans="1:2">
@@ -15895,7 +15895,7 @@
         <v>1944</v>
       </c>
       <c r="B1944">
-        <v>0.4503710572420492</v>
+        <v>0.4503710572420491</v>
       </c>
     </row>
     <row r="1945" spans="1:2">
@@ -15967,7 +15967,7 @@
         <v>1953</v>
       </c>
       <c r="B1953">
-        <v>72.41462987179315</v>
+        <v>72.41462987179314</v>
       </c>
     </row>
     <row r="1954" spans="1:2">
@@ -16103,7 +16103,7 @@
         <v>1970</v>
       </c>
       <c r="B1970">
-        <v>0.4565489947370303</v>
+        <v>0.4565489947370302</v>
       </c>
     </row>
     <row r="1971" spans="1:2">
@@ -16151,7 +16151,7 @@
         <v>1976</v>
       </c>
       <c r="B1976">
-        <v>0.5498247142117767</v>
+        <v>0.5498247142117766</v>
       </c>
     </row>
     <row r="1977" spans="1:2">
@@ -16159,7 +16159,7 @@
         <v>1977</v>
       </c>
       <c r="B1977">
-        <v>0.3574206466202169</v>
+        <v>0.3574206466202168</v>
       </c>
     </row>
     <row r="1978" spans="1:2">
@@ -16199,7 +16199,7 @@
         <v>1982</v>
       </c>
       <c r="B1982">
-        <v>1.009811432232305</v>
+        <v>1.009811432232304</v>
       </c>
     </row>
     <row r="1983" spans="1:2">
@@ -16383,7 +16383,7 @@
         <v>2005</v>
       </c>
       <c r="B2005">
-        <v>0.2019364961950587</v>
+        <v>0.2019364961950586</v>
       </c>
     </row>
     <row r="2006" spans="1:2">
@@ -16527,7 +16527,7 @@
         <v>2023</v>
       </c>
       <c r="B2023">
-        <v>212.4178888217431</v>
+        <v>212.417888821743</v>
       </c>
     </row>
     <row r="2024" spans="1:2">
@@ -16799,7 +16799,7 @@
         <v>2057</v>
       </c>
       <c r="B2057">
-        <v>6.970636040352366</v>
+        <v>6.970636040352365</v>
       </c>
     </row>
     <row r="2058" spans="1:2">
@@ -17047,7 +17047,7 @@
         <v>2088</v>
       </c>
       <c r="B2088">
-        <v>0.462313702067499</v>
+        <v>0.4623137020674989</v>
       </c>
     </row>
     <row r="2089" spans="1:2">
@@ -17063,7 +17063,7 @@
         <v>2090</v>
       </c>
       <c r="B2090">
-        <v>0.4870401055993567</v>
+        <v>0.4870401055993566</v>
       </c>
     </row>
     <row r="2091" spans="1:2">
@@ -17175,7 +17175,7 @@
         <v>2104</v>
       </c>
       <c r="B2104">
-        <v>7.519909781011459</v>
+        <v>7.519909781011458</v>
       </c>
     </row>
     <row r="2105" spans="1:2">
@@ -17183,7 +17183,7 @@
         <v>2105</v>
       </c>
       <c r="B2105">
-        <v>9.021048948138736</v>
+        <v>9.021048948138734</v>
       </c>
     </row>
     <row r="2106" spans="1:2">
@@ -17199,7 +17199,7 @@
         <v>2107</v>
       </c>
       <c r="B2107">
-        <v>0.5248462695866702</v>
+        <v>0.5248462695866701</v>
       </c>
     </row>
     <row r="2108" spans="1:2">
@@ -17247,7 +17247,7 @@
         <v>2113</v>
       </c>
       <c r="B2113">
-        <v>0.4519917400858464</v>
+        <v>0.4519917400858463</v>
       </c>
     </row>
     <row r="2114" spans="1:2">
@@ -17255,7 +17255,7 @@
         <v>2114</v>
       </c>
       <c r="B2114">
-        <v>1.092598139233362</v>
+        <v>1.092598139233361</v>
       </c>
     </row>
     <row r="2115" spans="1:2">
@@ -17287,7 +17287,7 @@
         <v>2118</v>
       </c>
       <c r="B2118">
-        <v>271.51859447819</v>
+        <v>271.5185944781899</v>
       </c>
     </row>
     <row r="2119" spans="1:2">
@@ -17351,7 +17351,7 @@
         <v>2126</v>
       </c>
       <c r="B2126">
-        <v>1.941929732115487</v>
+        <v>1.941929732115486</v>
       </c>
     </row>
     <row r="2127" spans="1:2">
@@ -17471,7 +17471,7 @@
         <v>2141</v>
       </c>
       <c r="B2141">
-        <v>0.676369857995359</v>
+        <v>0.6763698579953589</v>
       </c>
     </row>
     <row r="2142" spans="1:2">
@@ -17479,7 +17479,7 @@
         <v>2142</v>
       </c>
       <c r="B2142">
-        <v>0.6746378081568705</v>
+        <v>0.6746378081568704</v>
       </c>
     </row>
     <row r="2143" spans="1:2">
@@ -17527,7 +17527,7 @@
         <v>2148</v>
       </c>
       <c r="B2148">
-        <v>0.5794659190619852</v>
+        <v>0.5794659190619851</v>
       </c>
     </row>
     <row r="2149" spans="1:2">
@@ -17551,7 +17551,7 @@
         <v>2151</v>
       </c>
       <c r="B2151">
-        <v>0.7204096429749993</v>
+        <v>0.7204096429749992</v>
       </c>
     </row>
     <row r="2152" spans="1:2">
@@ -17687,7 +17687,7 @@
         <v>2168</v>
       </c>
       <c r="B2168">
-        <v>0.8077799810207197</v>
+        <v>0.8077799810207196</v>
       </c>
     </row>
     <row r="2169" spans="1:2">
@@ -17727,7 +17727,7 @@
         <v>2173</v>
       </c>
       <c r="B2173">
-        <v>1.246741782727683</v>
+        <v>1.246741782727682</v>
       </c>
     </row>
     <row r="2174" spans="1:2">
@@ -17759,7 +17759,7 @@
         <v>2177</v>
       </c>
       <c r="B2177">
-        <v>0.4614432810826748</v>
+        <v>0.4614432810826747</v>
       </c>
     </row>
     <row r="2178" spans="1:2">
@@ -17839,7 +17839,7 @@
         <v>2187</v>
       </c>
       <c r="B2187">
-        <v>0.5348868833712079</v>
+        <v>0.5348868833712078</v>
       </c>
     </row>
     <row r="2188" spans="1:2">
@@ -18071,7 +18071,7 @@
         <v>2216</v>
       </c>
       <c r="B2216">
-        <v>99.05830413857338</v>
+        <v>99.05830413857336</v>
       </c>
     </row>
     <row r="2217" spans="1:2">
@@ -18079,7 +18079,7 @@
         <v>2217</v>
       </c>
       <c r="B2217">
-        <v>54.13403076425308</v>
+        <v>54.13403076425307</v>
       </c>
     </row>
     <row r="2218" spans="1:2">
@@ -18151,7 +18151,7 @@
         <v>2226</v>
       </c>
       <c r="B2226">
-        <v>0.7408806550254943</v>
+        <v>0.7408806550254942</v>
       </c>
     </row>
     <row r="2227" spans="1:2">
@@ -18231,7 +18231,7 @@
         <v>2236</v>
       </c>
       <c r="B2236">
-        <v>0.5786248051810271</v>
+        <v>0.578624805181027</v>
       </c>
     </row>
     <row r="2237" spans="1:2">
@@ -18375,7 +18375,7 @@
         <v>2254</v>
       </c>
       <c r="B2254">
-        <v>0.5491740965059485</v>
+        <v>0.5491740965059484</v>
       </c>
     </row>
     <row r="2255" spans="1:2">
@@ -18431,7 +18431,7 @@
         <v>2261</v>
       </c>
       <c r="B2261">
-        <v>0.4260754681370236</v>
+        <v>0.4260754681370235</v>
       </c>
     </row>
     <row r="2262" spans="1:2">
@@ -18471,7 +18471,7 @@
         <v>2266</v>
       </c>
       <c r="B2266">
-        <v>61.26474220592227</v>
+        <v>61.26474220592226</v>
       </c>
     </row>
     <row r="2267" spans="1:2">
@@ -18655,7 +18655,7 @@
         <v>2289</v>
       </c>
       <c r="B2289">
-        <v>37.64819869747508</v>
+        <v>37.64819869747507</v>
       </c>
     </row>
     <row r="2290" spans="1:2">
@@ -18855,7 +18855,7 @@
         <v>2314</v>
       </c>
       <c r="B2314">
-        <v>0.88082793740706</v>
+        <v>0.8808279374070599</v>
       </c>
     </row>
     <row r="2315" spans="1:2">
@@ -18887,7 +18887,7 @@
         <v>2318</v>
       </c>
       <c r="B2318">
-        <v>0.6157950050144455</v>
+        <v>0.6157950050144454</v>
       </c>
     </row>
     <row r="2319" spans="1:2">
@@ -19071,7 +19071,7 @@
         <v>2341</v>
       </c>
       <c r="B2341">
-        <v>1.061875502250493</v>
+        <v>1.061875502250492</v>
       </c>
     </row>
     <row r="2342" spans="1:2">
@@ -19087,7 +19087,7 @@
         <v>2343</v>
       </c>
       <c r="B2343">
-        <v>0.9458516087548526</v>
+        <v>0.9458516087548524</v>
       </c>
     </row>
     <row r="2344" spans="1:2">
@@ -19095,7 +19095,7 @@
         <v>2344</v>
       </c>
       <c r="B2344">
-        <v>0.8386081235775065</v>
+        <v>0.8386081235775064</v>
       </c>
     </row>
     <row r="2345" spans="1:2">
@@ -19231,7 +19231,7 @@
         <v>2361</v>
       </c>
       <c r="B2361">
-        <v>48.3353271932997</v>
+        <v>48.33532719329969</v>
       </c>
     </row>
     <row r="2362" spans="1:2">
@@ -19255,7 +19255,7 @@
         <v>2364</v>
       </c>
       <c r="B2364">
-        <v>6.284527431742291</v>
+        <v>6.28452743174229</v>
       </c>
     </row>
     <row r="2365" spans="1:2">
@@ -19271,7 +19271,7 @@
         <v>2366</v>
       </c>
       <c r="B2366">
-        <v>0.691222698234716</v>
+        <v>0.6912226982347159</v>
       </c>
     </row>
     <row r="2367" spans="1:2">
@@ -19415,7 +19415,7 @@
         <v>2384</v>
       </c>
       <c r="B2384">
-        <v>13.89385318664933</v>
+        <v>13.89385318664932</v>
       </c>
     </row>
     <row r="2385" spans="1:2">
@@ -19439,7 +19439,7 @@
         <v>2387</v>
       </c>
       <c r="B2387">
-        <v>0.7869016002264854</v>
+        <v>0.7869016002264853</v>
       </c>
     </row>
     <row r="2388" spans="1:2">
@@ -19655,7 +19655,7 @@
         <v>2414</v>
       </c>
       <c r="B2414">
-        <v>0.9898093338436678</v>
+        <v>0.9898093338436676</v>
       </c>
     </row>
     <row r="2415" spans="1:2">
@@ -19663,7 +19663,7 @@
         <v>2415</v>
       </c>
       <c r="B2415">
-        <v>0.767608733751409</v>
+        <v>0.7676087337514089</v>
       </c>
     </row>
     <row r="2416" spans="1:2">
@@ -19855,7 +19855,7 @@
         <v>2439</v>
       </c>
       <c r="B2439">
-        <v>0.6524347462678869</v>
+        <v>0.6524347462678868</v>
       </c>
     </row>
     <row r="2440" spans="1:2">
@@ -19983,7 +19983,7 @@
         <v>2455</v>
       </c>
       <c r="B2455">
-        <v>58.95153249776827</v>
+        <v>58.95153249776826</v>
       </c>
     </row>
     <row r="2456" spans="1:2">
@@ -20151,7 +20151,7 @@
         <v>2476</v>
       </c>
       <c r="B2476">
-        <v>0.3971522873315355</v>
+        <v>0.3971522873315354</v>
       </c>
     </row>
     <row r="2477" spans="1:2">
@@ -20191,7 +20191,7 @@
         <v>2481</v>
       </c>
       <c r="B2481">
-        <v>0.9668853171995774</v>
+        <v>0.9668853171995772</v>
       </c>
     </row>
     <row r="2482" spans="1:2">
@@ -20223,7 +20223,7 @@
         <v>2485</v>
       </c>
       <c r="B2485">
-        <v>0.8431331404144377</v>
+        <v>0.8431331404144375</v>
       </c>
     </row>
     <row r="2486" spans="1:2">
@@ -20231,7 +20231,7 @@
         <v>2486</v>
       </c>
       <c r="B2486">
-        <v>0.89881077633932</v>
+        <v>0.8988107763393199</v>
       </c>
     </row>
     <row r="2487" spans="1:2">
@@ -20583,7 +20583,7 @@
         <v>2530</v>
       </c>
       <c r="B2530">
-        <v>0.8787061030871518</v>
+        <v>0.8787061030871517</v>
       </c>
     </row>
     <row r="2531" spans="1:2">
@@ -20759,7 +20759,7 @@
         <v>2552</v>
       </c>
       <c r="B2552">
-        <v>0.8310351679384974</v>
+        <v>0.8310351679384973</v>
       </c>
     </row>
     <row r="2553" spans="1:2">
@@ -20999,7 +20999,7 @@
         <v>2582</v>
       </c>
       <c r="B2582">
-        <v>0.7602995420471951</v>
+        <v>0.760299542047195</v>
       </c>
     </row>
     <row r="2583" spans="1:2">
@@ -21471,7 +21471,7 @@
         <v>2641</v>
       </c>
       <c r="B2641">
-        <v>0.4288068902173474</v>
+        <v>0.4288068902173473</v>
       </c>
     </row>
     <row r="2642" spans="1:2">
@@ -21543,7 +21543,7 @@
         <v>2650</v>
       </c>
       <c r="B2650">
-        <v>0.4229015087883213</v>
+        <v>0.4229015087883212</v>
       </c>
     </row>
     <row r="2651" spans="1:2">
@@ -21559,7 +21559,7 @@
         <v>2652</v>
       </c>
       <c r="B2652">
-        <v>0.613972103153972</v>
+        <v>0.6139721031539719</v>
       </c>
     </row>
     <row r="2653" spans="1:2">
@@ -21711,7 +21711,7 @@
         <v>2671</v>
       </c>
       <c r="B2671">
-        <v>0.3697149766920603</v>
+        <v>0.3697149766920602</v>
       </c>
     </row>
     <row r="2672" spans="1:2">
@@ -21943,7 +21943,7 @@
         <v>2700</v>
       </c>
       <c r="B2700">
-        <v>6.878904805251365</v>
+        <v>6.878904805251364</v>
       </c>
     </row>
     <row r="2701" spans="1:2">
@@ -22151,7 +22151,7 @@
         <v>2726</v>
       </c>
       <c r="B2726">
-        <v>0.8226474748120096</v>
+        <v>0.8226474748120095</v>
       </c>
     </row>
     <row r="2727" spans="1:2">
@@ -22167,7 +22167,7 @@
         <v>2728</v>
       </c>
       <c r="B2728">
-        <v>0.5049555381927248</v>
+        <v>0.5049555381927247</v>
       </c>
     </row>
     <row r="2729" spans="1:2">
@@ -22487,7 +22487,7 @@
         <v>2768</v>
       </c>
       <c r="B2768">
-        <v>1.740238243308749</v>
+        <v>1.740238243308748</v>
       </c>
     </row>
     <row r="2769" spans="1:2">
@@ -22503,7 +22503,7 @@
         <v>2770</v>
       </c>
       <c r="B2770">
-        <v>0.7428207853014325</v>
+        <v>0.7428207853014324</v>
       </c>
     </row>
     <row r="2771" spans="1:2">
@@ -22663,7 +22663,7 @@
         <v>2790</v>
       </c>
       <c r="B2790">
-        <v>8.58150100435445</v>
+        <v>8.581501004354449</v>
       </c>
     </row>
     <row r="2791" spans="1:2">
@@ -22671,7 +22671,7 @@
         <v>2791</v>
       </c>
       <c r="B2791">
-        <v>0.8409292462037044</v>
+        <v>0.8409292462037042</v>
       </c>
     </row>
     <row r="2792" spans="1:2">
@@ -22735,7 +22735,7 @@
         <v>2799</v>
       </c>
       <c r="B2799">
-        <v>0.0416899413916537</v>
+        <v>0.0416899413916536</v>
       </c>
     </row>
     <row r="2800" spans="1:2">
@@ -22887,7 +22887,7 @@
         <v>2818</v>
       </c>
       <c r="B2818">
-        <v>0.2956793709054313</v>
+        <v>0.2956793709054312</v>
       </c>
     </row>
     <row r="2819" spans="1:2">
@@ -22935,7 +22935,7 @@
         <v>2824</v>
       </c>
       <c r="B2824">
-        <v>0.5101722026808967</v>
+        <v>0.5101722026808966</v>
       </c>
     </row>
     <row r="2825" spans="1:2">
@@ -23095,7 +23095,7 @@
         <v>2844</v>
       </c>
       <c r="B2844">
-        <v>0.5850811601627366</v>
+        <v>0.5850811601627365</v>
       </c>
     </row>
     <row r="2845" spans="1:2">
@@ -23223,7 +23223,7 @@
         <v>2860</v>
       </c>
       <c r="B2860">
-        <v>0.4802027582673875</v>
+        <v>0.4802027582673874</v>
       </c>
     </row>
     <row r="2861" spans="1:2">
@@ -23255,7 +23255,7 @@
         <v>2864</v>
       </c>
       <c r="B2864">
-        <v>65.06733893255323</v>
+        <v>65.06733893255321</v>
       </c>
     </row>
     <row r="2865" spans="1:2">
@@ -23303,7 +23303,7 @@
         <v>2870</v>
       </c>
       <c r="B2870">
-        <v>0.7464577968912197</v>
+        <v>0.7464577968912196</v>
       </c>
     </row>
     <row r="2871" spans="1:2">
@@ -23463,7 +23463,7 @@
         <v>2890</v>
       </c>
       <c r="B2890">
-        <v>3.140402714775646</v>
+        <v>3.140402714775645</v>
       </c>
     </row>
     <row r="2891" spans="1:2">
@@ -23599,7 +23599,7 @@
         <v>2907</v>
       </c>
       <c r="B2907">
-        <v>0.4038020691987614</v>
+        <v>0.4038020691987613</v>
       </c>
     </row>
     <row r="2908" spans="1:2">
@@ -23855,7 +23855,7 @@
         <v>2939</v>
       </c>
       <c r="B2939">
-        <v>0.8172930669356668</v>
+        <v>0.8172930669356667</v>
       </c>
     </row>
     <row r="2940" spans="1:2">
@@ -24231,7 +24231,7 @@
         <v>2986</v>
       </c>
       <c r="B2986">
-        <v>0.8528074154006487</v>
+        <v>0.8528074154006486</v>
       </c>
     </row>
     <row r="2987" spans="1:2">
@@ -24239,7 +24239,7 @@
         <v>2987</v>
       </c>
       <c r="B2987">
-        <v>0.6846579069687019</v>
+        <v>0.6846579069687018</v>
       </c>
     </row>
     <row r="2988" spans="1:2">
@@ -24247,7 +24247,7 @@
         <v>2988</v>
       </c>
       <c r="B2988">
-        <v>0.6006871929714532</v>
+        <v>0.6006871929714531</v>
       </c>
     </row>
     <row r="2989" spans="1:2">
@@ -24447,7 +24447,7 @@
         <v>3013</v>
       </c>
       <c r="B3013">
-        <v>0.4944694564294218</v>
+        <v>0.4944694564294217</v>
       </c>
     </row>
     <row r="3014" spans="1:2">
@@ -24775,7 +24775,7 @@
         <v>3054</v>
       </c>
       <c r="B3054">
-        <v>0.674224577992358</v>
+        <v>0.6742245779923579</v>
       </c>
     </row>
     <row r="3055" spans="1:2">
@@ -24783,7 +24783,7 @@
         <v>3055</v>
       </c>
       <c r="B3055">
-        <v>1.521633624860865</v>
+        <v>1.521633624860864</v>
       </c>
     </row>
     <row r="3056" spans="1:2">
@@ -24999,7 +24999,7 @@
         <v>3082</v>
       </c>
       <c r="B3082">
-        <v>0.615572271025063</v>
+        <v>0.6155722710250628</v>
       </c>
     </row>
     <row r="3083" spans="1:2">
@@ -25191,7 +25191,7 @@
         <v>3106</v>
       </c>
       <c r="B3106">
-        <v>0.8597180304922832</v>
+        <v>0.8597180304922831</v>
       </c>
     </row>
     <row r="3107" spans="1:2">
@@ -25383,7 +25383,7 @@
         <v>3130</v>
       </c>
       <c r="B3130">
-        <v>0.8918181013568605</v>
+        <v>0.8918181013568603</v>
       </c>
     </row>
     <row r="3131" spans="1:2">
@@ -25607,7 +25607,7 @@
         <v>3158</v>
       </c>
       <c r="B3158">
-        <v>0.6509752524953534</v>
+        <v>0.6509752524953533</v>
       </c>
     </row>
     <row r="3159" spans="1:2">
@@ -25623,7 +25623,7 @@
         <v>3160</v>
       </c>
       <c r="B3160">
-        <v>0.7985218669094077</v>
+        <v>0.7985218669094076</v>
       </c>
     </row>
     <row r="3161" spans="1:2">
@@ -25815,7 +25815,7 @@
         <v>3184</v>
       </c>
       <c r="B3184">
-        <v>0.7939470279959041</v>
+        <v>0.793947027995904</v>
       </c>
     </row>
     <row r="3185" spans="1:2">
@@ -25991,7 +25991,7 @@
         <v>3206</v>
       </c>
       <c r="B3206">
-        <v>0.7146683813276237</v>
+        <v>0.7146683813276236</v>
       </c>
     </row>
     <row r="3207" spans="1:2">
@@ -26175,7 +26175,7 @@
         <v>3229</v>
       </c>
       <c r="B3229">
-        <v>0.6536861596029708</v>
+        <v>0.6536861596029707</v>
       </c>
     </row>
     <row r="3230" spans="1:2">
@@ -26407,7 +26407,7 @@
         <v>3258</v>
       </c>
       <c r="B3258">
-        <v>0.8165633200494001</v>
+        <v>0.8165633200494</v>
       </c>
     </row>
     <row r="3259" spans="1:2">
@@ -26543,7 +26543,7 @@
         <v>3275</v>
       </c>
       <c r="B3275">
-        <v>0.4391581593028661</v>
+        <v>0.439158159302866</v>
       </c>
     </row>
     <row r="3276" spans="1:2">
@@ -26719,7 +26719,7 @@
         <v>3297</v>
       </c>
       <c r="B3297">
-        <v>0.8832135356617633</v>
+        <v>0.8832135356617632</v>
       </c>
     </row>
     <row r="3298" spans="1:2">
@@ -26903,7 +26903,7 @@
         <v>3320</v>
       </c>
       <c r="B3320">
-        <v>0.8269644112114912</v>
+        <v>0.8269644112114911</v>
       </c>
     </row>
     <row r="3321" spans="1:2">
@@ -26927,7 +26927,7 @@
         <v>3323</v>
       </c>
       <c r="B3323">
-        <v>0.5215814582159829</v>
+        <v>0.5215814582159828</v>
       </c>
     </row>
     <row r="3324" spans="1:2">
@@ -26983,7 +26983,7 @@
         <v>3330</v>
       </c>
       <c r="B3330">
-        <v>0.259400400100582</v>
+        <v>0.2594004001005819</v>
       </c>
     </row>
     <row r="3331" spans="1:2">
@@ -27119,7 +27119,7 @@
         <v>3347</v>
       </c>
       <c r="B3347">
-        <v>0.5888559151406947</v>
+        <v>0.5888559151406946</v>
       </c>
     </row>
     <row r="3348" spans="1:2">
@@ -27175,7 +27175,7 @@
         <v>3354</v>
       </c>
       <c r="B3354">
-        <v>0.2187977522623619</v>
+        <v>0.2187977522623618</v>
       </c>
     </row>
     <row r="3355" spans="1:2">
@@ -27271,7 +27271,7 @@
         <v>3366</v>
       </c>
       <c r="B3366">
-        <v>48.4528486798029</v>
+        <v>48.45284867980289</v>
       </c>
     </row>
     <row r="3367" spans="1:2">
@@ -27487,7 +27487,7 @@
         <v>3393</v>
       </c>
       <c r="B3393">
-        <v>0.7711314476361184</v>
+        <v>0.7711314476361183</v>
       </c>
     </row>
     <row r="3394" spans="1:2">
@@ -27895,7 +27895,7 @@
         <v>3444</v>
       </c>
       <c r="B3444">
-        <v>0.4734181637223773</v>
+        <v>0.4734181637223772</v>
       </c>
     </row>
     <row r="3445" spans="1:2">
@@ -28015,7 +28015,7 @@
         <v>3459</v>
       </c>
       <c r="B3459">
-        <v>0.4367080854196572</v>
+        <v>0.4367080854196571</v>
       </c>
     </row>
     <row r="3460" spans="1:2">
@@ -28039,7 +28039,7 @@
         <v>3462</v>
       </c>
       <c r="B3462">
-        <v>59.81785048805121</v>
+        <v>59.8178504880512</v>
       </c>
     </row>
     <row r="3463" spans="1:2">
@@ -28079,7 +28079,7 @@
         <v>3467</v>
       </c>
       <c r="B3467">
-        <v>0.4088047918287106</v>
+        <v>0.4088047918287105</v>
       </c>
     </row>
     <row r="3468" spans="1:2">
@@ -28279,7 +28279,7 @@
         <v>3492</v>
       </c>
       <c r="B3492">
-        <v>0.8321459071750239</v>
+        <v>0.8321459071750238</v>
       </c>
     </row>
     <row r="3493" spans="1:2">
@@ -28495,7 +28495,7 @@
         <v>3519</v>
       </c>
       <c r="B3519">
-        <v>0.8373420566904896</v>
+        <v>0.8373420566904894</v>
       </c>
     </row>
     <row r="3520" spans="1:2">
@@ -28503,7 +28503,7 @@
         <v>3520</v>
       </c>
       <c r="B3520">
-        <v>0.883231119924083</v>
+        <v>0.8832311199240829</v>
       </c>
     </row>
     <row r="3521" spans="1:2">
@@ -29023,7 +29023,7 @@
         <v>3585</v>
       </c>
       <c r="B3585">
-        <v>0.4049831454845666</v>
+        <v>0.4049831454845665</v>
       </c>
     </row>
     <row r="3586" spans="1:2">
@@ -29415,7 +29415,7 @@
         <v>3634</v>
       </c>
       <c r="B3634">
-        <v>0.2830907975107719</v>
+        <v>0.2830907975107718</v>
       </c>
     </row>
     <row r="3635" spans="1:2">
@@ -29647,7 +29647,7 @@
         <v>3663</v>
       </c>
       <c r="B3663">
-        <v>0.7415107577586162</v>
+        <v>0.7415107577586161</v>
       </c>
     </row>
     <row r="3664" spans="1:2">
@@ -29999,7 +29999,7 @@
         <v>3707</v>
       </c>
       <c r="B3707">
-        <v>0.0137374118662119</v>
+        <v>0.0137374118662118</v>
       </c>
     </row>
     <row r="3708" spans="1:2">
@@ -30151,7 +30151,7 @@
         <v>3726</v>
       </c>
       <c r="B3726">
-        <v>0.2604736262441599</v>
+        <v>0.2604736262441598</v>
       </c>
     </row>
     <row r="3727" spans="1:2">
@@ -30159,7 +30159,7 @@
         <v>3727</v>
       </c>
       <c r="B3727">
-        <v>0.5559997209963713</v>
+        <v>0.5559997209963712</v>
       </c>
     </row>
     <row r="3728" spans="1:2">
@@ -30255,7 +30255,7 @@
         <v>3739</v>
       </c>
       <c r="B3739">
-        <v>0.3684635633569764</v>
+        <v>0.3684635633569763</v>
       </c>
     </row>
     <row r="3740" spans="1:2">
@@ -30735,7 +30735,7 @@
         <v>3799</v>
       </c>
       <c r="B3799">
-        <v>1.271154600248173</v>
+        <v>1.271154600248172</v>
       </c>
     </row>
     <row r="3800" spans="1:2">
@@ -31343,7 +31343,7 @@
         <v>3875</v>
       </c>
       <c r="B3875">
-        <v>0.4058330514966845</v>
+        <v>0.4058330514966844</v>
       </c>
     </row>
     <row r="3876" spans="1:2">
@@ -31687,7 +31687,7 @@
         <v>3918</v>
       </c>
       <c r="B3918">
-        <v>0.1910090494475318</v>
+        <v>0.1910090494475317</v>
       </c>
     </row>
     <row r="3919" spans="1:2">
@@ -32279,7 +32279,7 @@
         <v>3992</v>
       </c>
       <c r="B3992">
-        <v>0.9913684717693462</v>
+        <v>0.9913684717693459</v>
       </c>
     </row>
     <row r="3993" spans="1:2">
@@ -32303,7 +32303,7 @@
         <v>3995</v>
       </c>
       <c r="B3995">
-        <v>0.5401123399905398</v>
+        <v>0.5401123399905396</v>
       </c>
     </row>
     <row r="3996" spans="1:2">
@@ -32543,7 +32543,7 @@
         <v>4025</v>
       </c>
       <c r="B4025">
-        <v>0.982582202030279</v>
+        <v>0.9825822020302788</v>
       </c>
     </row>
     <row r="4026" spans="1:2">
@@ -32671,7 +32671,7 @@
         <v>4041</v>
       </c>
       <c r="B4041">
-        <v>1.114302980356621</v>
+        <v>1.11430298035662</v>
       </c>
     </row>
     <row r="4042" spans="1:2">
@@ -33415,7 +33415,7 @@
         <v>4134</v>
       </c>
       <c r="B4134">
-        <v>0.2410336381076755</v>
+        <v>0.2410336381076754</v>
       </c>
     </row>
     <row r="4135" spans="1:2">
@@ -33431,7 +33431,7 @@
         <v>4136</v>
       </c>
       <c r="B4136">
-        <v>0.5470698464483601</v>
+        <v>0.54706984644836</v>
       </c>
     </row>
     <row r="4137" spans="1:2">
@@ -33519,7 +33519,7 @@
         <v>4147</v>
       </c>
       <c r="B4147">
-        <v>0.3687038816086787</v>
+        <v>0.3687038816086786</v>
       </c>
     </row>
     <row r="4148" spans="1:2">
@@ -33831,7 +33831,7 @@
         <v>4186</v>
       </c>
       <c r="B4186">
-        <v>0.8685365380456032</v>
+        <v>0.868536538045603</v>
       </c>
     </row>
     <row r="4187" spans="1:2">
@@ -34391,7 +34391,7 @@
         <v>4256</v>
       </c>
       <c r="B4256">
-        <v>0.4988332841950892</v>
+        <v>0.4988332841950891</v>
       </c>
     </row>
     <row r="4257" spans="1:2">
@@ -34663,7 +34663,7 @@
         <v>4290</v>
       </c>
       <c r="B4290">
-        <v>2.238816555700203</v>
+        <v>2.238816555700202</v>
       </c>
     </row>
     <row r="4291" spans="1:2">
@@ -34671,7 +34671,7 @@
         <v>4291</v>
       </c>
       <c r="B4291">
-        <v>0.419226397963508</v>
+        <v>0.4192263979635079</v>
       </c>
     </row>
     <row r="4292" spans="1:2">
@@ -34855,7 +34855,7 @@
         <v>4314</v>
       </c>
       <c r="B4314">
-        <v>1.73983087456501</v>
+        <v>1.739830874565009</v>
       </c>
     </row>
     <row r="4315" spans="1:2">
@@ -34975,7 +34975,7 @@
         <v>4329</v>
       </c>
       <c r="B4329">
-        <v>0.8874073822250071</v>
+        <v>0.887407382225007</v>
       </c>
     </row>
     <row r="4330" spans="1:2">
@@ -35239,7 +35239,7 @@
         <v>4362</v>
       </c>
       <c r="B4362">
-        <v>0.2074896062356139</v>
+        <v>0.2074896062356138</v>
       </c>
     </row>
     <row r="4363" spans="1:2">
@@ -35447,7 +35447,7 @@
         <v>4388</v>
       </c>
       <c r="B4388">
-        <v>0.0319526561321305</v>
+        <v>0.0319526561321304</v>
       </c>
     </row>
     <row r="4389" spans="1:2">
@@ -36199,7 +36199,7 @@
         <v>4482</v>
       </c>
       <c r="B4482">
-        <v>2.058135329655097</v>
+        <v>2.058135329655096</v>
       </c>
     </row>
     <row r="4483" spans="1:2">
@@ -36351,7 +36351,7 @@
         <v>4501</v>
       </c>
       <c r="B4501">
-        <v>0.3523065569955764</v>
+        <v>0.3523065569955763</v>
       </c>
     </row>
     <row r="4502" spans="1:2">
@@ -36503,7 +36503,7 @@
         <v>4520</v>
       </c>
       <c r="B4520">
-        <v>0.8744448501850158</v>
+        <v>0.8744448501850157</v>
       </c>
     </row>
     <row r="4521" spans="1:2">
@@ -36543,7 +36543,7 @@
         <v>4525</v>
       </c>
       <c r="B4525">
-        <v>0.2827487836086541</v>
+        <v>0.282748783608654</v>
       </c>
     </row>
     <row r="4526" spans="1:2">
@@ -36551,7 +36551,7 @@
         <v>4526</v>
       </c>
       <c r="B4526">
-        <v>0.5092197218052473</v>
+        <v>0.5092197218052472</v>
       </c>
     </row>
     <row r="4527" spans="1:2">
@@ -36559,7 +36559,7 @@
         <v>4527</v>
       </c>
       <c r="B4527">
-        <v>0.6051037735240796</v>
+        <v>0.6051037735240795</v>
       </c>
     </row>
     <row r="4528" spans="1:2">
@@ -36575,7 +36575,7 @@
         <v>4529</v>
       </c>
       <c r="B4529">
-        <v>0.5345879509117734</v>
+        <v>0.5345879509117732</v>
       </c>
     </row>
     <row r="4530" spans="1:2">
@@ -36871,7 +36871,7 @@
         <v>4566</v>
       </c>
       <c r="B4566">
-        <v>0.284719393272613</v>
+        <v>0.2847193932726129</v>
       </c>
     </row>
     <row r="4567" spans="1:2">
@@ -36879,7 +36879,7 @@
         <v>4567</v>
       </c>
       <c r="B4567">
-        <v>0.7430933413673875</v>
+        <v>0.7430933413673874</v>
       </c>
     </row>
     <row r="4568" spans="1:2">
@@ -37455,7 +37455,7 @@
         <v>4639</v>
       </c>
       <c r="B4639">
-        <v>0.968253958950126</v>
+        <v>0.9682539589501258</v>
       </c>
     </row>
     <row r="4640" spans="1:2">
@@ -37703,7 +37703,7 @@
         <v>4670</v>
       </c>
       <c r="B4670">
-        <v>0.5986650028046899</v>
+        <v>0.5986650028046898</v>
       </c>
     </row>
     <row r="4671" spans="1:2">
@@ -37711,7 +37711,7 @@
         <v>4671</v>
       </c>
       <c r="B4671">
-        <v>0.779633438467684</v>
+        <v>0.7796334384676838</v>
       </c>
     </row>
     <row r="4672" spans="1:2">
@@ -37735,7 +37735,7 @@
         <v>4674</v>
       </c>
       <c r="B4674">
-        <v>0.4416932237872867</v>
+        <v>0.4416932237872866</v>
       </c>
     </row>
     <row r="4675" spans="1:2">
@@ -37927,7 +37927,7 @@
         <v>4698</v>
       </c>
       <c r="B4698">
-        <v>0.2881008469166876</v>
+        <v>0.2881008469166875</v>
       </c>
     </row>
     <row r="4699" spans="1:2">
@@ -38607,7 +38607,7 @@
         <v>4783</v>
       </c>
       <c r="B4783">
-        <v>0.6910644398738389</v>
+        <v>0.6910644398738388</v>
       </c>
     </row>
     <row r="4784" spans="1:2">
@@ -38791,7 +38791,7 @@
         <v>4806</v>
       </c>
       <c r="B4806">
-        <v>0.2690905009228807</v>
+        <v>0.2690905009228806</v>
       </c>
     </row>
     <row r="4807" spans="1:2">
@@ -39239,7 +39239,7 @@
         <v>4862</v>
       </c>
       <c r="B4862">
-        <v>0.2375279223432085</v>
+        <v>0.2375279223432084</v>
       </c>
     </row>
     <row r="4863" spans="1:2">
@@ -39247,7 +39247,7 @@
         <v>4863</v>
       </c>
       <c r="B4863">
-        <v>0.2433272120562392</v>
+        <v>0.2433272120562391</v>
       </c>
     </row>
     <row r="4864" spans="1:2">
@@ -40351,7 +40351,7 @@
         <v>5001</v>
       </c>
       <c r="B5001">
-        <v>0.8826010171909611</v>
+        <v>0.882601017190961</v>
       </c>
     </row>
     <row r="5002" spans="1:2">
@@ -40391,7 +40391,7 @@
         <v>5006</v>
       </c>
       <c r="B5006">
-        <v>0.4161755284510434</v>
+        <v>0.4161755284510433</v>
       </c>
     </row>
     <row r="5007" spans="1:2">
@@ -40535,7 +40535,7 @@
         <v>5024</v>
       </c>
       <c r="B5024">
-        <v>0.742694764754808</v>
+        <v>0.7426947647548079</v>
       </c>
     </row>
     <row r="5025" spans="1:2">
@@ -40551,7 +40551,7 @@
         <v>5026</v>
       </c>
       <c r="B5026">
-        <v>0.6123631431517211</v>
+        <v>0.612363143151721</v>
       </c>
     </row>
     <row r="5027" spans="1:2">
@@ -40583,7 +40583,7 @@
         <v>5030</v>
       </c>
       <c r="B5030">
-        <v>0.5605862827514213</v>
+        <v>0.5605862827514212</v>
       </c>
     </row>
     <row r="5031" spans="1:2">
@@ -40591,7 +40591,7 @@
         <v>5031</v>
       </c>
       <c r="B5031">
-        <v>0.6806955865260005</v>
+        <v>0.6806955865260004</v>
       </c>
     </row>
     <row r="5032" spans="1:2">
@@ -41199,7 +41199,7 @@
         <v>5107</v>
       </c>
       <c r="B5107">
-        <v>0.7259047249498995</v>
+        <v>0.7259047249498994</v>
       </c>
     </row>
     <row r="5108" spans="1:2">
@@ -41879,7 +41879,7 @@
         <v>5192</v>
       </c>
       <c r="B5192">
-        <v>0.4475282681670341</v>
+        <v>0.447528268167034</v>
       </c>
     </row>
     <row r="5193" spans="1:2">
@@ -41927,7 +41927,7 @@
         <v>5198</v>
       </c>
       <c r="B5198">
-        <v>0.3761508167010635</v>
+        <v>0.3761508167010634</v>
       </c>
     </row>
     <row r="5199" spans="1:2">
@@ -41959,7 +41959,7 @@
         <v>5202</v>
       </c>
       <c r="B5202">
-        <v>0.4656986725640375</v>
+        <v>0.4656986725640374</v>
       </c>
     </row>
     <row r="5203" spans="1:2">
@@ -42543,7 +42543,7 @@
         <v>5275</v>
       </c>
       <c r="B5275">
-        <v>0.1517091023761614</v>
+        <v>0.1517091023761613</v>
       </c>
     </row>
     <row r="5276" spans="1:2">
@@ -42831,7 +42831,7 @@
         <v>5311</v>
       </c>
       <c r="B5311">
-        <v>0.941352968311401</v>
+        <v>0.9413529683114008</v>
       </c>
     </row>
     <row r="5312" spans="1:2">
@@ -42919,7 +42919,7 @@
         <v>5322</v>
       </c>
       <c r="B5322">
-        <v>0.8343996234623297</v>
+        <v>0.8343996234623295</v>
       </c>
     </row>
     <row r="5323" spans="1:2">
@@ -43247,7 +43247,7 @@
         <v>5363</v>
       </c>
       <c r="B5363">
-        <v>0.6705758435610242</v>
+        <v>0.6705758435610241</v>
       </c>
     </row>
     <row r="5364" spans="1:2">
@@ -43431,7 +43431,7 @@
         <v>5386</v>
       </c>
       <c r="B5386">
-        <v>0.2382236729889905</v>
+        <v>0.2382236729889904</v>
       </c>
     </row>
     <row r="5387" spans="1:2">
@@ -43439,7 +43439,7 @@
         <v>5387</v>
       </c>
       <c r="B5387">
-        <v>0.06988952980268701</v>
+        <v>0.06988952980268689</v>
       </c>
     </row>
     <row r="5388" spans="1:2">
@@ -43975,7 +43975,7 @@
         <v>5454</v>
       </c>
       <c r="B5454">
-        <v>0.2648866899443224</v>
+        <v>0.2648866899443223</v>
       </c>
     </row>
     <row r="5455" spans="1:2">
@@ -44175,7 +44175,7 @@
         <v>5479</v>
       </c>
       <c r="B5479">
-        <v>0.8382036855441539</v>
+        <v>0.8382036855441538</v>
       </c>
     </row>
     <row r="5480" spans="1:2">
@@ -44271,7 +44271,7 @@
         <v>5491</v>
       </c>
       <c r="B5491">
-        <v>0.2451876270096614</v>
+        <v>0.2451876270096613</v>
       </c>
     </row>
     <row r="5492" spans="1:2">
@@ -44407,7 +44407,7 @@
         <v>5508</v>
       </c>
       <c r="B5508">
-        <v>0.4176350222235769</v>
+        <v>0.4176350222235768</v>
       </c>
     </row>
     <row r="5509" spans="1:2">
@@ -44559,7 +44559,7 @@
         <v>5527</v>
       </c>
       <c r="B5527">
-        <v>0.0813046467585464</v>
+        <v>0.0813046467585463</v>
       </c>
     </row>
     <row r="5528" spans="1:2">
@@ -44567,7 +44567,7 @@
         <v>5528</v>
       </c>
       <c r="B5528">
-        <v>0.5813884650756036</v>
+        <v>0.5813884650756035</v>
       </c>
     </row>
     <row r="5529" spans="1:2">
@@ -44615,7 +44615,7 @@
         <v>5534</v>
       </c>
       <c r="B5534">
-        <v>0.5355873231536086</v>
+        <v>0.5355873231536085</v>
       </c>
     </row>
     <row r="5535" spans="1:2">
@@ -45175,7 +45175,7 @@
         <v>5604</v>
       </c>
       <c r="B5604">
-        <v>0.0369035051882366</v>
+        <v>0.0369035051882365</v>
       </c>
     </row>
     <row r="5605" spans="1:2">
@@ -45535,7 +45535,7 @@
         <v>5649</v>
       </c>
       <c r="B5649">
-        <v>0.4411422502346034</v>
+        <v>0.4411422502346033</v>
       </c>
     </row>
     <row r="5650" spans="1:2">
@@ -45759,7 +45759,7 @@
         <v>5677</v>
       </c>
       <c r="B5677">
-        <v>0.6929869858874573</v>
+        <v>0.6929869858874572</v>
       </c>
     </row>
     <row r="5678" spans="1:2">
@@ -45767,7 +45767,7 @@
         <v>5678</v>
       </c>
       <c r="B5678">
-        <v>0.648871002437765</v>
+        <v>0.6488710024377649</v>
       </c>
     </row>
     <row r="5679" spans="1:2">
@@ -45791,7 +45791,7 @@
         <v>5681</v>
       </c>
       <c r="B5681">
-        <v>0.2797342549049835</v>
+        <v>0.2797342549049834</v>
       </c>
     </row>
     <row r="5682" spans="1:2">
@@ -45911,7 +45911,7 @@
         <v>5696</v>
       </c>
       <c r="B5696">
-        <v>0.8722409559742825</v>
+        <v>0.8722409559742824</v>
       </c>
     </row>
     <row r="5697" spans="1:2">
@@ -45951,7 +45951,7 @@
         <v>5701</v>
       </c>
       <c r="B5701">
-        <v>0.6283267226276047</v>
+        <v>0.6283267226276046</v>
       </c>
     </row>
     <row r="5702" spans="1:2">
@@ -45967,7 +45967,7 @@
         <v>5703</v>
       </c>
       <c r="B5703">
-        <v>0.4288977422393324</v>
+        <v>0.4288977422393323</v>
       </c>
     </row>
     <row r="5704" spans="1:2">
@@ -46087,7 +46087,7 @@
         <v>5718</v>
       </c>
       <c r="B5718">
-        <v>0.2943576205210686</v>
+        <v>0.2943576205210685</v>
       </c>
     </row>
     <row r="5719" spans="1:2">
@@ -46119,7 +46119,7 @@
         <v>5722</v>
       </c>
       <c r="B5722">
-        <v>0.2838237681784639</v>
+        <v>0.2838237681784638</v>
       </c>
     </row>
     <row r="5723" spans="1:2">
@@ -46279,7 +46279,7 @@
         <v>5742</v>
       </c>
       <c r="B5742">
-        <v>0.2322546951445749</v>
+        <v>0.2322546951445748</v>
       </c>
     </row>
     <row r="5743" spans="1:2">
@@ -46567,7 +46567,7 @@
         <v>5778</v>
       </c>
       <c r="B5778">
-        <v>1.89864020899482</v>
+        <v>1.898640208994819</v>
       </c>
     </row>
     <row r="5779" spans="1:2">
@@ -46575,7 +46575,7 @@
         <v>5779</v>
       </c>
       <c r="B5779">
-        <v>0.2221792059064365</v>
+        <v>0.2221792059064364</v>
       </c>
     </row>
     <row r="5780" spans="1:2">
@@ -46671,7 +46671,7 @@
         <v>5791</v>
       </c>
       <c r="B5791">
-        <v>0.8797582281159461</v>
+        <v>0.879758228115946</v>
       </c>
     </row>
     <row r="5792" spans="1:2">
@@ -47095,7 +47095,7 @@
         <v>5844</v>
       </c>
       <c r="B5844">
-        <v>0.61371420063995</v>
+        <v>0.6137142006399499</v>
       </c>
     </row>
     <row r="5845" spans="1:2">
@@ -47135,7 +47135,7 @@
         <v>5849</v>
       </c>
       <c r="B5849">
-        <v>0.5330346744068682</v>
+        <v>0.5330346744068681</v>
       </c>
     </row>
     <row r="5850" spans="1:2">
@@ -47287,7 +47287,7 @@
         <v>5868</v>
       </c>
       <c r="B5868">
-        <v>0.7266344718361664</v>
+        <v>0.7266344718361663</v>
       </c>
     </row>
     <row r="5869" spans="1:2">
@@ -47295,7 +47295,7 @@
         <v>5869</v>
       </c>
       <c r="B5869">
-        <v>0.8667458739993823</v>
+        <v>0.8667458739993822</v>
       </c>
     </row>
     <row r="5870" spans="1:2">
@@ -47303,7 +47303,7 @@
         <v>5870</v>
       </c>
       <c r="B5870">
-        <v>0.6353955960801163</v>
+        <v>0.6353955960801162</v>
       </c>
     </row>
     <row r="5871" spans="1:2">
@@ -47719,7 +47719,7 @@
         <v>5922</v>
       </c>
       <c r="B5922">
-        <v>1.700193016586063</v>
+        <v>1.700193016586062</v>
       </c>
     </row>
     <row r="5923" spans="1:2">
@@ -47815,7 +47815,7 @@
         <v>5934</v>
       </c>
       <c r="B5934">
-        <v>0.164469708470515</v>
+        <v>0.1644697084705149</v>
       </c>
     </row>
     <row r="5935" spans="1:2">
@@ -48015,7 +48015,7 @@
         <v>5959</v>
       </c>
       <c r="B5959">
-        <v>0.7761869230530266</v>
+        <v>0.7761869230530265</v>
       </c>
     </row>
     <row r="5960" spans="1:2">
@@ -48207,7 +48207,7 @@
         <v>5983</v>
       </c>
       <c r="B5983">
-        <v>0.5633880418810238</v>
+        <v>0.5633880418810236</v>
       </c>
     </row>
     <row r="5984" spans="1:2">
@@ -48623,7 +48623,7 @@
         <v>6035</v>
       </c>
       <c r="B6035">
-        <v>0.986866900615508</v>
+        <v>0.9868669006155076</v>
       </c>
     </row>
     <row r="6036" spans="1:2">
@@ -48783,7 +48783,7 @@
         <v>6055</v>
       </c>
       <c r="B6055">
-        <v>0.7083614925756315</v>
+        <v>0.7083614925756314</v>
       </c>
     </row>
     <row r="6056" spans="1:2">
@@ -48975,7 +48975,7 @@
         <v>6079</v>
       </c>
       <c r="B6079">
-        <v>0.8727215924776871</v>
+        <v>0.872721592477687</v>
       </c>
     </row>
     <row r="6080" spans="1:2">
@@ -48999,7 +48999,7 @@
         <v>6082</v>
       </c>
       <c r="B6082">
-        <v>0.2562856411016892</v>
+        <v>0.2562856411016891</v>
       </c>
     </row>
     <row r="6083" spans="1:2">
@@ -49359,7 +49359,7 @@
         <v>6127</v>
       </c>
       <c r="B6127">
-        <v>0.8467818748457715</v>
+        <v>0.8467818748457714</v>
       </c>
     </row>
     <row r="6128" spans="1:2">
@@ -49391,7 +49391,7 @@
         <v>6131</v>
       </c>
       <c r="B6131">
-        <v>0.09943196971286659</v>
+        <v>0.0994319697128665</v>
       </c>
     </row>
     <row r="6132" spans="1:2">
@@ -49447,7 +49447,7 @@
         <v>6138</v>
       </c>
       <c r="B6138">
-        <v>0.9356908358444638</v>
+        <v>0.9356908358444636</v>
       </c>
     </row>
     <row r="6139" spans="1:2">
@@ -49951,7 +49951,7 @@
         <v>6201</v>
       </c>
       <c r="B6201">
-        <v>0.5811774539277674</v>
+        <v>0.5811774539277673</v>
       </c>
     </row>
     <row r="6202" spans="1:2">
@@ -50407,7 +50407,7 @@
         <v>6258</v>
       </c>
       <c r="B6258">
-        <v>0.9049271689161824</v>
+        <v>0.9049271689161822</v>
       </c>
     </row>
     <row r="6259" spans="1:2">
@@ -50703,7 +50703,7 @@
         <v>6295</v>
       </c>
       <c r="B6295">
-        <v>0.7534621947152259</v>
+        <v>0.7534621947152258</v>
       </c>
     </row>
     <row r="6296" spans="1:2">
@@ -50711,7 +50711,7 @@
         <v>6296</v>
       </c>
       <c r="B6296">
-        <v>0.8339014026966053</v>
+        <v>0.8339014026966052</v>
       </c>
     </row>
     <row r="6297" spans="1:2">
@@ -50943,7 +50943,7 @@
         <v>6325</v>
       </c>
       <c r="B6325">
-        <v>0.7965084688738043</v>
+        <v>0.7965084688738042</v>
       </c>
     </row>
     <row r="6326" spans="1:2">
@@ -50951,7 +50951,7 @@
         <v>6326</v>
       </c>
       <c r="B6326">
-        <v>0.3590325373328543</v>
+        <v>0.3590325373328542</v>
       </c>
     </row>
     <row r="6327" spans="1:2">
@@ -51127,7 +51127,7 @@
         <v>6348</v>
       </c>
       <c r="B6348">
-        <v>0.8074224343535528</v>
+        <v>0.8074224343535527</v>
       </c>
     </row>
     <row r="6349" spans="1:2">
@@ -51135,7 +51135,7 @@
         <v>6349</v>
       </c>
       <c r="B6349">
-        <v>0.8143770101009865</v>
+        <v>0.8143770101009864</v>
       </c>
     </row>
     <row r="6350" spans="1:2">
@@ -51143,7 +51143,7 @@
         <v>6350</v>
       </c>
       <c r="B6350">
-        <v>1.061277637331624</v>
+        <v>1.061277637331623</v>
       </c>
     </row>
     <row r="6351" spans="1:2">
@@ -51295,7 +51295,7 @@
         <v>6369</v>
       </c>
       <c r="B6369">
-        <v>0.5665502783881797</v>
+        <v>0.5665502783881796</v>
       </c>
     </row>
     <row r="6370" spans="1:2">
@@ -51311,7 +51311,7 @@
         <v>6371</v>
       </c>
       <c r="B6371">
-        <v>0.2978012052253394</v>
+        <v>0.2978012052253393</v>
       </c>
     </row>
     <row r="6372" spans="1:2">
@@ -51351,7 +51351,7 @@
         <v>6376</v>
       </c>
       <c r="B6376">
-        <v>0.598034900071568</v>
+        <v>0.5980349000715679</v>
       </c>
     </row>
     <row r="6377" spans="1:2">
@@ -51519,7 +51519,7 @@
         <v>6397</v>
       </c>
       <c r="B6397">
-        <v>0.9658918063785156</v>
+        <v>0.9658918063785152</v>
       </c>
     </row>
     <row r="6398" spans="1:2">
@@ -51895,7 +51895,7 @@
         <v>6444</v>
       </c>
       <c r="B6444">
-        <v>0.3862412525621736</v>
+        <v>0.3862412525621735</v>
       </c>
     </row>
     <row r="6445" spans="1:2">
@@ -52047,7 +52047,7 @@
         <v>6463</v>
       </c>
       <c r="B6463">
-        <v>0.6898042344075951</v>
+        <v>0.689804234407595</v>
       </c>
     </row>
     <row r="6464" spans="1:2">
@@ -52135,7 +52135,7 @@
         <v>6474</v>
       </c>
       <c r="B6474">
-        <v>0.4756103350915642</v>
+        <v>0.4756103350915641</v>
       </c>
     </row>
     <row r="6475" spans="1:2">
@@ -52239,7 +52239,7 @@
         <v>6487</v>
       </c>
       <c r="B6487">
-        <v>0.718736207344243</v>
+        <v>0.7187362073442429</v>
       </c>
     </row>
     <row r="6488" spans="1:2">
@@ -52455,7 +52455,7 @@
         <v>6514</v>
       </c>
       <c r="B6514">
-        <v>0.9187102998644254</v>
+        <v>0.9187102998644252</v>
       </c>
     </row>
     <row r="6515" spans="1:2">
@@ -52503,7 +52503,7 @@
         <v>6520</v>
       </c>
       <c r="B6520">
-        <v>0.2177802096161297</v>
+        <v>0.2177802096161296</v>
       </c>
     </row>
     <row r="6521" spans="1:2">
@@ -52639,7 +52639,7 @@
         <v>6537</v>
       </c>
       <c r="B6537">
-        <v>0.9054576274961594</v>
+        <v>0.9054576274961592</v>
       </c>
     </row>
     <row r="6538" spans="1:2">
@@ -52671,7 +52671,7 @@
         <v>6541</v>
       </c>
       <c r="B6541">
-        <v>0.6218527833835755</v>
+        <v>0.6218527833835754</v>
       </c>
     </row>
     <row r="6542" spans="1:2">
@@ -52679,7 +52679,7 @@
         <v>6542</v>
       </c>
       <c r="B6542">
-        <v>0.4736965812091056</v>
+        <v>0.4736965812091055</v>
       </c>
     </row>
     <row r="6543" spans="1:2">
@@ -52847,7 +52847,7 @@
         <v>6563</v>
       </c>
       <c r="B6563">
-        <v>0.8833630018914805</v>
+        <v>0.8833630018914804</v>
       </c>
     </row>
     <row r="6564" spans="1:2">
@@ -53015,7 +53015,7 @@
         <v>6584</v>
       </c>
       <c r="B6584">
-        <v>6.150154360516064</v>
+        <v>6.150154360516063</v>
       </c>
     </row>
     <row r="6585" spans="1:2">
@@ -53047,7 +53047,7 @@
         <v>6588</v>
       </c>
       <c r="B6588">
-        <v>0.8733927251562216</v>
+        <v>0.8733927251562215</v>
       </c>
     </row>
     <row r="6589" spans="1:2">
@@ -53071,7 +53071,7 @@
         <v>6591</v>
       </c>
       <c r="B6591">
-        <v>0.2158573705314726</v>
+        <v>0.2158573705314725</v>
       </c>
     </row>
     <row r="6592" spans="1:2">
@@ -53159,7 +53159,7 @@
         <v>6602</v>
       </c>
       <c r="B6602">
-        <v>0.3936706033922387</v>
+        <v>0.3936706033922386</v>
       </c>
     </row>
     <row r="6603" spans="1:2">
@@ -53263,7 +53263,7 @@
         <v>6615</v>
       </c>
       <c r="B6615">
-        <v>0.2928799563441381</v>
+        <v>0.292879956344138</v>
       </c>
     </row>
     <row r="6616" spans="1:2">
@@ -53431,7 +53431,7 @@
         <v>6636</v>
       </c>
       <c r="B6636">
-        <v>0.9424373311544481</v>
+        <v>0.9424373311544478</v>
       </c>
     </row>
     <row r="6637" spans="1:2">
@@ -53831,7 +53831,7 @@
         <v>6686</v>
       </c>
       <c r="B6686">
-        <v>0.5448395758441472</v>
+        <v>0.5448395758441471</v>
       </c>
     </row>
     <row r="6687" spans="1:2">
@@ -53855,7 +53855,7 @@
         <v>6689</v>
       </c>
       <c r="B6689">
-        <v>0.2559632629591618</v>
+        <v>0.2559632629591617</v>
       </c>
     </row>
     <row r="6690" spans="1:2">
@@ -54543,7 +54543,7 @@
         <v>6775</v>
       </c>
       <c r="B6775">
-        <v>23.99958735597757</v>
+        <v>23.99958735597756</v>
       </c>
     </row>
     <row r="6776" spans="1:2">
@@ -54735,7 +54735,7 @@
         <v>6799</v>
       </c>
       <c r="B6799">
-        <v>43.45921125205224</v>
+        <v>43.45921125205223</v>
       </c>
     </row>
     <row r="6800" spans="1:2">
@@ -54767,7 +54767,7 @@
         <v>6803</v>
       </c>
       <c r="B6803">
-        <v>0.8955694106517256</v>
+        <v>0.8955694106517255</v>
       </c>
     </row>
     <row r="6804" spans="1:2">
@@ -54967,7 +54967,7 @@
         <v>6828</v>
       </c>
       <c r="B6828">
-        <v>0.8770971430849011</v>
+        <v>0.8770971430849009</v>
       </c>
     </row>
     <row r="6829" spans="1:2">
@@ -55007,7 +55007,7 @@
         <v>6833</v>
       </c>
       <c r="B6833">
-        <v>0.0592120726511382</v>
+        <v>0.0592120726511381</v>
       </c>
     </row>
     <row r="6834" spans="1:2">
@@ -55111,7 +55111,7 @@
         <v>6846</v>
       </c>
       <c r="B6846">
-        <v>0.6162170273101178</v>
+        <v>0.6162170273101177</v>
       </c>
     </row>
     <row r="6847" spans="1:2">
@@ -55151,7 +55151,7 @@
         <v>6851</v>
       </c>
       <c r="B6851">
-        <v>1.107365988871507</v>
+        <v>1.107365988871506</v>
       </c>
     </row>
     <row r="6852" spans="1:2">
@@ -55303,7 +55303,7 @@
         <v>6870</v>
       </c>
       <c r="B6870">
-        <v>0.6158858570364305</v>
+        <v>0.6158858570364304</v>
       </c>
     </row>
     <row r="6871" spans="1:2">
@@ -55319,7 +55319,7 @@
         <v>6872</v>
       </c>
       <c r="B6872">
-        <v>0.4744966651446511</v>
+        <v>0.474496665144651</v>
       </c>
     </row>
     <row r="6873" spans="1:2">
@@ -55335,7 +55335,7 @@
         <v>6874</v>
       </c>
       <c r="B6874">
-        <v>0.0888227981133259</v>
+        <v>0.0888227981133258</v>
       </c>
     </row>
     <row r="6875" spans="1:2">
@@ -55463,7 +55463,7 @@
         <v>6890</v>
       </c>
       <c r="B6890">
-        <v>0.4087666925936846</v>
+        <v>0.4087666925936845</v>
       </c>
     </row>
     <row r="6891" spans="1:2">
@@ -55535,7 +55535,7 @@
         <v>6899</v>
       </c>
       <c r="B6899">
-        <v>27.39320344815662</v>
+        <v>27.39320344815661</v>
       </c>
     </row>
     <row r="6900" spans="1:2">
@@ -55743,7 +55743,7 @@
         <v>6925</v>
       </c>
       <c r="B6925">
-        <v>0.8695974552055572</v>
+        <v>0.8695974552055571</v>
       </c>
     </row>
     <row r="6926" spans="1:2">
@@ -55911,7 +55911,7 @@
         <v>6946</v>
       </c>
       <c r="B6946">
-        <v>8.76877339805905</v>
+        <v>8.768773398059048</v>
       </c>
     </row>
     <row r="6947" spans="1:2">
@@ -55927,7 +55927,7 @@
         <v>6948</v>
       </c>
       <c r="B6948">
-        <v>0.898371169781328</v>
+        <v>0.8983711697813279</v>
       </c>
     </row>
     <row r="6949" spans="1:2">
@@ -55943,7 +55943,7 @@
         <v>6950</v>
       </c>
       <c r="B6950">
-        <v>0.5946733752581224</v>
+        <v>0.5946733752581222</v>
       </c>
     </row>
     <row r="6951" spans="1:2">
@@ -56271,7 +56271,7 @@
         <v>6991</v>
       </c>
       <c r="B6991">
-        <v>7.288764652819256</v>
+        <v>7.288764652819255</v>
       </c>
     </row>
     <row r="6992" spans="1:2">
@@ -56279,7 +56279,7 @@
         <v>6992</v>
       </c>
       <c r="B6992">
-        <v>0.8964896537131222</v>
+        <v>0.8964896537131221</v>
       </c>
     </row>
     <row r="6993" spans="1:2">
@@ -56303,7 +56303,7 @@
         <v>6995</v>
       </c>
       <c r="B6995">
-        <v>0.8314073681575973</v>
+        <v>0.8314073681575972</v>
       </c>
     </row>
     <row r="6996" spans="1:2">
@@ -56479,7 +56479,7 @@
         <v>7017</v>
       </c>
       <c r="B7017">
-        <v>0.8881459212424337</v>
+        <v>0.8881459212424336</v>
       </c>
     </row>
     <row r="7018" spans="1:2">
@@ -56671,7 +56671,7 @@
         <v>7041</v>
       </c>
       <c r="B7041">
-        <v>0.8145411298826368</v>
+        <v>0.8145411298826367</v>
       </c>
     </row>
     <row r="7042" spans="1:2">
@@ -56855,7 +56855,7 @@
         <v>7064</v>
       </c>
       <c r="B7064">
-        <v>2.35408139520571</v>
+        <v>2.354081395205709</v>
       </c>
     </row>
     <row r="7065" spans="1:2">
@@ -57255,7 +57255,7 @@
         <v>7114</v>
       </c>
       <c r="B7114">
-        <v>0.8391649585509631</v>
+        <v>0.839164958550963</v>
       </c>
     </row>
     <row r="7115" spans="1:2">
@@ -57431,7 +57431,7 @@
         <v>7136</v>
       </c>
       <c r="B7136">
-        <v>0.9694555502086374</v>
+        <v>0.9694555502086372</v>
       </c>
     </row>
     <row r="7137" spans="1:2">
@@ -57495,7 +57495,7 @@
         <v>7144</v>
       </c>
       <c r="B7144">
-        <v>0.0240841969648391</v>
+        <v>0.024084196964839</v>
       </c>
     </row>
     <row r="7145" spans="1:2">
@@ -57639,7 +57639,7 @@
         <v>7162</v>
       </c>
       <c r="B7162">
-        <v>3.356425377372924</v>
+        <v>3.356425377372923</v>
       </c>
     </row>
     <row r="7163" spans="1:2">
@@ -57655,7 +57655,7 @@
         <v>7164</v>
       </c>
       <c r="B7164">
-        <v>0.7978419420997134</v>
+        <v>0.7978419420997133</v>
       </c>
     </row>
     <row r="7165" spans="1:2">
@@ -57879,7 +57879,7 @@
         <v>7192</v>
       </c>
       <c r="B7192">
-        <v>0.5757790853956255</v>
+        <v>0.5757790853956254</v>
       </c>
     </row>
     <row r="7193" spans="1:2">
@@ -58015,7 +58015,7 @@
         <v>7209</v>
       </c>
       <c r="B7209">
-        <v>0.8986378644265099</v>
+        <v>0.8986378644265098</v>
       </c>
     </row>
     <row r="7210" spans="1:2">
@@ -58247,7 +58247,7 @@
         <v>7238</v>
       </c>
       <c r="B7238">
-        <v>0.7109463791366245</v>
+        <v>0.7109463791366244</v>
       </c>
     </row>
     <row r="7239" spans="1:2">
@@ -58399,7 +58399,7 @@
         <v>7257</v>
       </c>
       <c r="B7257">
-        <v>40.2008474442154</v>
+        <v>40.20084744421539</v>
       </c>
     </row>
     <row r="7258" spans="1:2">
@@ -58503,7 +58503,7 @@
         <v>7270</v>
       </c>
       <c r="B7270">
-        <v>0.4165242829870504</v>
+        <v>0.4165242829870503</v>
       </c>
     </row>
     <row r="7271" spans="1:2">
@@ -58639,7 +58639,7 @@
         <v>7287</v>
       </c>
       <c r="B7287">
-        <v>0.506045762456545</v>
+        <v>0.5060457624565449</v>
       </c>
     </row>
     <row r="7288" spans="1:2">
@@ -58767,7 +58767,7 @@
         <v>7303</v>
       </c>
       <c r="B7303">
-        <v>86.56204812109227</v>
+        <v>86.56204812109226</v>
       </c>
     </row>
     <row r="7304" spans="1:2">
@@ -58831,7 +58831,7 @@
         <v>7311</v>
       </c>
       <c r="B7311">
-        <v>0.4431937475052328</v>
+        <v>0.4431937475052327</v>
       </c>
     </row>
     <row r="7312" spans="1:2">
@@ -58911,7 +58911,7 @@
         <v>7321</v>
       </c>
       <c r="B7321">
-        <v>0.3996551140017034</v>
+        <v>0.3996551140017033</v>
       </c>
     </row>
     <row r="7322" spans="1:2">
@@ -58951,7 +58951,7 @@
         <v>7326</v>
       </c>
       <c r="B7326">
-        <v>232.8065479103742</v>
+        <v>232.8065479103741</v>
       </c>
     </row>
     <row r="7327" spans="1:2">
@@ -59127,7 +59127,7 @@
         <v>7348</v>
       </c>
       <c r="B7348">
-        <v>1.152311363360611</v>
+        <v>1.15231136336061</v>
       </c>
     </row>
     <row r="7349" spans="1:2">
@@ -59151,7 +59151,7 @@
         <v>7351</v>
       </c>
       <c r="B7351">
-        <v>0.732179375887639</v>
+        <v>0.7321793758876389</v>
       </c>
     </row>
     <row r="7352" spans="1:2">
@@ -59215,7 +59215,7 @@
         <v>7359</v>
       </c>
       <c r="B7359">
-        <v>0.829112621924879</v>
+        <v>0.8291126219248789</v>
       </c>
     </row>
     <row r="7360" spans="1:2">
@@ -59559,7 +59559,7 @@
         <v>7402</v>
       </c>
       <c r="B7402">
-        <v>95.33337123718768</v>
+        <v>95.33337123718766</v>
       </c>
     </row>
     <row r="7403" spans="1:2">
@@ -59599,7 +59599,7 @@
         <v>7407</v>
       </c>
       <c r="B7407">
-        <v>5.75380508783046</v>
+        <v>5.753805087830459</v>
       </c>
     </row>
     <row r="7408" spans="1:2">
@@ -59623,7 +59623,7 @@
         <v>7410</v>
       </c>
       <c r="B7410">
-        <v>8.715170705087891</v>
+        <v>8.715170705087889</v>
       </c>
     </row>
     <row r="7411" spans="1:2">
@@ -59727,7 +59727,7 @@
         <v>7423</v>
       </c>
       <c r="B7423">
-        <v>219.2833709734238</v>
+        <v>219.2833709734237</v>
       </c>
     </row>
     <row r="7424" spans="1:2">
@@ -59767,7 +59767,7 @@
         <v>7428</v>
       </c>
       <c r="B7428">
-        <v>3.003890224967192</v>
+        <v>3.003890224967191</v>
       </c>
     </row>
     <row r="7429" spans="1:2">
@@ -59799,7 +59799,7 @@
         <v>7432</v>
       </c>
       <c r="B7432">
-        <v>0.3397631165408708</v>
+        <v>0.3397631165408707</v>
       </c>
     </row>
     <row r="7433" spans="1:2">
@@ -60087,7 +60087,7 @@
         <v>7468</v>
       </c>
       <c r="B7468">
-        <v>0.4034298689796615</v>
+        <v>0.4034298689796614</v>
       </c>
     </row>
     <row r="7469" spans="1:2">
@@ -60199,7 +60199,7 @@
         <v>7482</v>
       </c>
       <c r="B7482">
-        <v>2.651032694418932</v>
+        <v>2.651032694418931</v>
       </c>
     </row>
     <row r="7483" spans="1:2">
@@ -60263,7 +60263,7 @@
         <v>7490</v>
       </c>
       <c r="B7490">
-        <v>0.3983245714861809</v>
+        <v>0.3983245714861808</v>
       </c>
     </row>
     <row r="7491" spans="1:2">
@@ -60391,7 +60391,7 @@
         <v>7506</v>
       </c>
       <c r="B7506">
-        <v>54.31251102679784</v>
+        <v>54.31251102679783</v>
       </c>
     </row>
     <row r="7507" spans="1:2">
@@ -60615,7 +60615,7 @@
         <v>7534</v>
       </c>
       <c r="B7534">
-        <v>5.09700358308652</v>
+        <v>5.097003583086519</v>
       </c>
     </row>
     <row r="7535" spans="1:2">
@@ -60623,7 +60623,7 @@
         <v>7535</v>
       </c>
       <c r="B7535">
-        <v>8.071909082330103</v>
+        <v>8.071909082330102</v>
       </c>
     </row>
     <row r="7536" spans="1:2">
@@ -60719,7 +60719,7 @@
         <v>7547</v>
       </c>
       <c r="B7547">
-        <v>8.311318813812557</v>
+        <v>8.311318813812555</v>
       </c>
     </row>
     <row r="7548" spans="1:2">
@@ -60871,7 +60871,7 @@
         <v>7566</v>
       </c>
       <c r="B7566">
-        <v>6.576572721768321</v>
+        <v>6.57657272176832</v>
       </c>
     </row>
     <row r="7567" spans="1:2">
@@ -60895,7 +60895,7 @@
         <v>7569</v>
       </c>
       <c r="B7569">
-        <v>6.484665644044123</v>
+        <v>6.484665644044122</v>
       </c>
     </row>
     <row r="7570" spans="1:2">
@@ -60903,7 +60903,7 @@
         <v>7570</v>
       </c>
       <c r="B7570">
-        <v>4.405414546053477</v>
+        <v>4.405414546053476</v>
       </c>
     </row>
     <row r="7571" spans="1:2">
@@ -61159,7 +61159,7 @@
         <v>7602</v>
       </c>
       <c r="B7602">
-        <v>99.9398618228667</v>
+        <v>99.93986182286667</v>
       </c>
     </row>
     <row r="7603" spans="1:2">
@@ -61231,7 +61231,7 @@
         <v>7611</v>
       </c>
       <c r="B7611">
-        <v>6.115425442434694</v>
+        <v>6.115425442434693</v>
       </c>
     </row>
     <row r="7612" spans="1:2">
@@ -61367,7 +61367,7 @@
         <v>7628</v>
       </c>
       <c r="B7628">
-        <v>0.7894220111589729</v>
+        <v>0.7894220111589728</v>
       </c>
     </row>
     <row r="7629" spans="1:2">
@@ -61383,7 +61383,7 @@
         <v>7630</v>
       </c>
       <c r="B7630">
-        <v>0.574592147689047</v>
+        <v>0.5745921476890469</v>
       </c>
     </row>
     <row r="7631" spans="1:2">
@@ -61487,7 +61487,7 @@
         <v>7643</v>
       </c>
       <c r="B7643">
-        <v>83.08212260802746</v>
+        <v>83.08212260802745</v>
       </c>
     </row>
     <row r="7644" spans="1:2">
@@ -61583,7 +61583,7 @@
         <v>7655</v>
       </c>
       <c r="B7655">
-        <v>0.4529442209614958</v>
+        <v>0.4529442209614957</v>
       </c>
     </row>
     <row r="7656" spans="1:2">
@@ -61655,7 +61655,7 @@
         <v>7664</v>
       </c>
       <c r="B7664">
-        <v>188.5504765042018</v>
+        <v>188.5504765042017</v>
       </c>
     </row>
     <row r="7665" spans="1:2">
@@ -61783,7 +61783,7 @@
         <v>7680</v>
       </c>
       <c r="B7680">
-        <v>0.4428830922042518</v>
+        <v>0.4428830922042517</v>
       </c>
     </row>
     <row r="7681" spans="1:2">
@@ -61815,7 +61815,7 @@
         <v>7684</v>
       </c>
       <c r="B7684">
-        <v>0.7015153531125025</v>
+        <v>0.7015153531125023</v>
       </c>
     </row>
     <row r="7685" spans="1:2">
@@ -61831,7 +61831,7 @@
         <v>7686</v>
       </c>
       <c r="B7686">
-        <v>0.7134579979379523</v>
+        <v>0.7134579979379522</v>
       </c>
     </row>
     <row r="7687" spans="1:2">
@@ -62031,7 +62031,7 @@
         <v>7711</v>
       </c>
       <c r="B7711">
-        <v>6.453248428699627</v>
+        <v>6.453248428699626</v>
       </c>
     </row>
     <row r="7712" spans="1:2">
@@ -62063,7 +62063,7 @@
         <v>7715</v>
       </c>
       <c r="B7715">
-        <v>0.9677410846324686</v>
+        <v>0.9677410846324684</v>
       </c>
     </row>
     <row r="7716" spans="1:2">
@@ -62463,7 +62463,7 @@
         <v>7765</v>
       </c>
       <c r="B7765">
-        <v>6.456589438540366</v>
+        <v>6.456589438540365</v>
       </c>
     </row>
     <row r="7766" spans="1:2">
@@ -62479,7 +62479,7 @@
         <v>7767</v>
       </c>
       <c r="B7767">
-        <v>3.422131904240797</v>
+        <v>3.422131904240796</v>
       </c>
     </row>
     <row r="7768" spans="1:2">
@@ -62663,7 +62663,7 @@
         <v>7790</v>
       </c>
       <c r="B7790">
-        <v>6.580470566582517</v>
+        <v>6.580470566582516</v>
       </c>
     </row>
     <row r="7791" spans="1:2">
@@ -62679,7 +62679,7 @@
         <v>7792</v>
       </c>
       <c r="B7792">
-        <v>0.7787806017451795</v>
+        <v>0.7787806017451794</v>
       </c>
     </row>
     <row r="7793" spans="1:2">
@@ -63039,7 +63039,7 @@
         <v>7837</v>
       </c>
       <c r="B7837">
-        <v>0.7290376543531893</v>
+        <v>0.7290376543531892</v>
       </c>
     </row>
     <row r="7838" spans="1:2">
@@ -63607,7 +63607,7 @@
         <v>7908</v>
       </c>
       <c r="B7908">
-        <v>50.2997823654467</v>
+        <v>50.29978236544669</v>
       </c>
     </row>
     <row r="7909" spans="1:2">
@@ -63615,7 +63615,7 @@
         <v>7909</v>
       </c>
       <c r="B7909">
-        <v>33.65832957713953</v>
+        <v>33.65832957713952</v>
       </c>
     </row>
     <row r="7910" spans="1:2">
@@ -63751,7 +63751,7 @@
         <v>7926</v>
       </c>
       <c r="B7926">
-        <v>0.2537171665188612</v>
+        <v>0.2537171665188611</v>
       </c>
     </row>
     <row r="7927" spans="1:2">
@@ -63999,7 +63999,7 @@
         <v>7957</v>
       </c>
       <c r="B7957">
-        <v>0.8679328117059608</v>
+        <v>0.8679328117059607</v>
       </c>
     </row>
     <row r="7958" spans="1:2">
@@ -64015,7 +64015,7 @@
         <v>7959</v>
       </c>
       <c r="B7959">
-        <v>0.4669999079756939</v>
+        <v>0.4669999079756938</v>
       </c>
     </row>
     <row r="7960" spans="1:2">
@@ -64175,7 +64175,7 @@
         <v>7979</v>
       </c>
       <c r="B7979">
-        <v>0.9993165583378418</v>
+        <v>0.9993165583378416</v>
       </c>
     </row>
     <row r="7980" spans="1:2">
@@ -64359,7 +64359,7 @@
         <v>8002</v>
       </c>
       <c r="B8002">
-        <v>21.50956789019918</v>
+        <v>21.50956789019917</v>
       </c>
     </row>
     <row r="8003" spans="1:2">
@@ -64415,7 +64415,7 @@
         <v>8009</v>
       </c>
       <c r="B8009">
-        <v>0.1518811350758556</v>
+        <v>0.1518811350758555</v>
       </c>
     </row>
     <row r="8010" spans="1:2">
@@ -64503,7 +64503,7 @@
         <v>8020</v>
       </c>
       <c r="B8020">
-        <v>1.167345907643938</v>
+        <v>1.167345907643937</v>
       </c>
     </row>
     <row r="8021" spans="1:2">
@@ -64567,7 +64567,7 @@
         <v>8028</v>
       </c>
       <c r="B8028">
-        <v>0.7285335721666919</v>
+        <v>0.7285335721666918</v>
       </c>
     </row>
     <row r="8029" spans="1:2">
@@ -64631,7 +64631,7 @@
         <v>8036</v>
       </c>
       <c r="B8036">
-        <v>0.3265573355387906</v>
+        <v>0.3265573355387905</v>
       </c>
     </row>
     <row r="8037" spans="1:2">
@@ -64695,7 +64695,7 @@
         <v>8044</v>
       </c>
       <c r="B8044">
-        <v>14.79964784583995</v>
+        <v>14.79964784583994</v>
       </c>
     </row>
     <row r="8045" spans="1:2">
@@ -64743,7 +64743,7 @@
         <v>8050</v>
       </c>
       <c r="B8050">
-        <v>14.68828085114864</v>
+        <v>14.68828085114863</v>
       </c>
     </row>
     <row r="8051" spans="1:2">
@@ -64751,7 +64751,7 @@
         <v>8051</v>
       </c>
       <c r="B8051">
-        <v>8.228526245390727</v>
+        <v>8.228526245390725</v>
       </c>
     </row>
     <row r="8052" spans="1:2">
@@ -64895,7 +64895,7 @@
         <v>8069</v>
       </c>
       <c r="B8069">
-        <v>23.21925640843787</v>
+        <v>23.21925640843786</v>
       </c>
     </row>
     <row r="8070" spans="1:2">
@@ -65015,7 +65015,7 @@
         <v>8084</v>
       </c>
       <c r="B8084">
-        <v>0.7450657094575783</v>
+        <v>0.7450657094575782</v>
       </c>
     </row>
     <row r="8085" spans="1:2">
@@ -65079,7 +65079,7 @@
         <v>8092</v>
       </c>
       <c r="B8092">
-        <v>0.6438917254909088</v>
+        <v>0.6438917254909087</v>
       </c>
     </row>
     <row r="8093" spans="1:2">
@@ -65159,7 +65159,7 @@
         <v>8102</v>
       </c>
       <c r="B8102">
-        <v>31.82487715927415</v>
+        <v>31.82487715927414</v>
       </c>
     </row>
     <row r="8103" spans="1:2">
@@ -65215,7 +65215,7 @@
         <v>8109</v>
       </c>
       <c r="B8109">
-        <v>0.4695115267770216</v>
+        <v>0.4695115267770215</v>
       </c>
     </row>
     <row r="8110" spans="1:2">
@@ -65239,7 +65239,7 @@
         <v>8112</v>
       </c>
       <c r="B8112">
-        <v>0.4278075179755122</v>
+        <v>0.4278075179755121</v>
       </c>
     </row>
     <row r="8113" spans="1:2">
@@ -65263,7 +65263,7 @@
         <v>8115</v>
       </c>
       <c r="B8115">
-        <v>0.6513240070313604</v>
+        <v>0.6513240070313603</v>
       </c>
     </row>
     <row r="8116" spans="1:2">
@@ -65327,7 +65327,7 @@
         <v>8123</v>
       </c>
       <c r="B8123">
-        <v>78.08027919119428</v>
+        <v>78.08027919119426</v>
       </c>
     </row>
     <row r="8124" spans="1:2">
@@ -65439,7 +65439,7 @@
         <v>8137</v>
       </c>
       <c r="B8137">
-        <v>0.4840566424257842</v>
+        <v>0.4840566424257841</v>
       </c>
     </row>
     <row r="8138" spans="1:2">
@@ -65463,7 +65463,7 @@
         <v>8140</v>
       </c>
       <c r="B8140">
-        <v>1.249698869507776</v>
+        <v>1.249698869507775</v>
       </c>
     </row>
     <row r="8141" spans="1:2">
@@ -65743,7 +65743,7 @@
         <v>8175</v>
       </c>
       <c r="B8175">
-        <v>64.84284651693864</v>
+        <v>64.84284651693862</v>
       </c>
     </row>
     <row r="8176" spans="1:2">
@@ -65751,7 +65751,7 @@
         <v>8176</v>
       </c>
       <c r="B8176">
-        <v>65.53361495506343</v>
+        <v>65.53361495506341</v>
       </c>
     </row>
     <row r="8177" spans="1:2">
@@ -65887,7 +65887,7 @@
         <v>8193</v>
       </c>
       <c r="B8193">
-        <v>25.0482541465156</v>
+        <v>25.04825414651559</v>
       </c>
     </row>
     <row r="8194" spans="1:2">
@@ -65895,7 +65895,7 @@
         <v>8194</v>
       </c>
       <c r="B8194">
-        <v>23.86240080278019</v>
+        <v>23.86240080278018</v>
       </c>
     </row>
     <row r="8195" spans="1:2">
@@ -65903,7 +65903,7 @@
         <v>8195</v>
       </c>
       <c r="B8195">
-        <v>20.54466080251057</v>
+        <v>20.54466080251056</v>
       </c>
     </row>
     <row r="8196" spans="1:2">
@@ -65991,7 +65991,7 @@
         <v>8206</v>
       </c>
       <c r="B8206">
-        <v>22.72713152031774</v>
+        <v>22.72713152031773</v>
       </c>
     </row>
     <row r="8207" spans="1:2">
@@ -66039,7 +66039,7 @@
         <v>8212</v>
       </c>
       <c r="B8212">
-        <v>55.71866587029497</v>
+        <v>55.71866587029496</v>
       </c>
     </row>
     <row r="8213" spans="1:2">
@@ -66191,7 +66191,7 @@
         <v>8231</v>
       </c>
       <c r="B8231">
-        <v>56.57208873487681</v>
+        <v>56.5720887348768</v>
       </c>
     </row>
     <row r="8232" spans="1:2">
@@ -66239,7 +66239,7 @@
         <v>8237</v>
       </c>
       <c r="B8237">
-        <v>72.93190025503043</v>
+        <v>72.93190025503041</v>
       </c>
     </row>
     <row r="8238" spans="1:2">
@@ -66263,7 +66263,7 @@
         <v>8240</v>
       </c>
       <c r="B8240">
-        <v>248.3190910577579</v>
+        <v>248.3190910577578</v>
       </c>
     </row>
     <row r="8241" spans="1:2">
@@ -66295,7 +66295,7 @@
         <v>8244</v>
       </c>
       <c r="B8244">
-        <v>177.8056130137609</v>
+        <v>177.8056130137608</v>
       </c>
     </row>
     <row r="8245" spans="1:2">
@@ -66327,7 +66327,7 @@
         <v>8248</v>
       </c>
       <c r="B8248">
-        <v>91.7083755599855</v>
+        <v>91.70837555998548</v>
       </c>
     </row>
     <row r="8249" spans="1:2">
@@ -66359,7 +66359,7 @@
         <v>8252</v>
       </c>
       <c r="B8252">
-        <v>1.045135284522157</v>
+        <v>1.045135284522156</v>
       </c>
     </row>
     <row r="8253" spans="1:2">
@@ -66367,7 +66367,7 @@
         <v>8253</v>
       </c>
       <c r="B8253">
-        <v>0.8955049350232201</v>
+        <v>0.89550493502322</v>
       </c>
     </row>
     <row r="8254" spans="1:2">
@@ -66439,7 +66439,7 @@
         <v>8262</v>
       </c>
       <c r="B8262">
-        <v>17.33620699255776</v>
+        <v>17.33620699255775</v>
       </c>
     </row>
     <row r="8263" spans="1:2">
@@ -66495,7 +66495,7 @@
         <v>8269</v>
       </c>
       <c r="B8269">
-        <v>66.61387480356915</v>
+        <v>66.61387480356913</v>
       </c>
     </row>
     <row r="8270" spans="1:2">
@@ -66503,7 +66503,7 @@
         <v>8270</v>
       </c>
       <c r="B8270">
-        <v>52.10363460840728</v>
+        <v>52.10363460840727</v>
       </c>
     </row>
     <row r="8271" spans="1:2">
@@ -66527,7 +66527,7 @@
         <v>8273</v>
       </c>
       <c r="B8273">
-        <v>56.32239220993734</v>
+        <v>56.32239220993733</v>
       </c>
     </row>
     <row r="8274" spans="1:2">
@@ -66743,7 +66743,7 @@
         <v>8300</v>
       </c>
       <c r="B8300">
-        <v>1.008850159225496</v>
+        <v>1.008850159225495</v>
       </c>
     </row>
     <row r="8301" spans="1:2">
@@ -66895,7 +66895,7 @@
         <v>8319</v>
       </c>
       <c r="B8319">
-        <v>79.527463980104</v>
+        <v>79.52746398010399</v>
       </c>
     </row>
     <row r="8320" spans="1:2">
@@ -66991,7 +66991,7 @@
         <v>8331</v>
       </c>
       <c r="B8331">
-        <v>11.91319118606436</v>
+        <v>11.91319118606435</v>
       </c>
     </row>
     <row r="8332" spans="1:2">
@@ -67095,7 +67095,7 @@
         <v>8344</v>
       </c>
       <c r="B8344">
-        <v>37.77802916760206</v>
+        <v>37.77802916760205</v>
       </c>
     </row>
     <row r="8345" spans="1:2">
@@ -67143,7 +67143,7 @@
         <v>8350</v>
       </c>
       <c r="B8350">
-        <v>0.6217707234927504</v>
+        <v>0.6217707234927503</v>
       </c>
     </row>
     <row r="8351" spans="1:2">
@@ -67199,7 +67199,7 @@
         <v>8357</v>
       </c>
       <c r="B8357">
-        <v>8.422099666426545</v>
+        <v>8.422099666426544</v>
       </c>
     </row>
     <row r="8358" spans="1:2">
@@ -67271,7 +67271,7 @@
         <v>8366</v>
       </c>
       <c r="B8366">
-        <v>0.837224828275025</v>
+        <v>0.8372248282750249</v>
       </c>
     </row>
     <row r="8367" spans="1:2">
@@ -67279,7 +67279,7 @@
         <v>8367</v>
       </c>
       <c r="B8367">
-        <v>0.5929120183157677</v>
+        <v>0.5929120183157676</v>
       </c>
     </row>
     <row r="8368" spans="1:2">
@@ -67319,7 +67319,7 @@
         <v>8372</v>
       </c>
       <c r="B8372">
-        <v>0.8307362354790628</v>
+        <v>0.8307362354790627</v>
       </c>
     </row>
     <row r="8373" spans="1:2">
@@ -67543,7 +67543,7 @@
         <v>8400</v>
       </c>
       <c r="B8400">
-        <v>15.37556174391336</v>
+        <v>15.37556174391335</v>
       </c>
     </row>
     <row r="8401" spans="1:2">
@@ -67567,7 +67567,7 @@
         <v>8403</v>
       </c>
       <c r="B8403">
-        <v>17.30572760453698</v>
+        <v>17.30572760453697</v>
       </c>
     </row>
     <row r="8404" spans="1:2">
@@ -67591,7 +67591,7 @@
         <v>8406</v>
       </c>
       <c r="B8406">
-        <v>21.81128452450104</v>
+        <v>21.81128452450103</v>
       </c>
     </row>
     <row r="8407" spans="1:2">
@@ -67615,7 +67615,7 @@
         <v>8409</v>
       </c>
       <c r="B8409">
-        <v>247.5632608490503</v>
+        <v>247.5632608490502</v>
       </c>
     </row>
     <row r="8410" spans="1:2">
@@ -67663,7 +67663,7 @@
         <v>8415</v>
       </c>
       <c r="B8415">
-        <v>68.96782138609707</v>
+        <v>68.96782138609706</v>
       </c>
     </row>
     <row r="8416" spans="1:2">
@@ -67799,7 +67799,7 @@
         <v>8432</v>
       </c>
       <c r="B8432">
-        <v>241.2247204248827</v>
+        <v>241.2247204248826</v>
       </c>
     </row>
     <row r="8433" spans="1:2">
@@ -67823,7 +67823,7 @@
         <v>8435</v>
       </c>
       <c r="B8435">
-        <v>78.97971420884595</v>
+        <v>78.97971420884593</v>
       </c>
     </row>
     <row r="8436" spans="1:2">
@@ -67879,7 +67879,7 @@
         <v>8442</v>
       </c>
       <c r="B8442">
-        <v>55.03844798956199</v>
+        <v>55.03844798956198</v>
       </c>
     </row>
     <row r="8443" spans="1:2">
@@ -68111,7 +68111,7 @@
         <v>8471</v>
       </c>
       <c r="B8471">
-        <v>0.4894139810125136</v>
+        <v>0.4894139810125135</v>
       </c>
     </row>
     <row r="8472" spans="1:2">
@@ -68223,7 +68223,7 @@
         <v>8485</v>
       </c>
       <c r="B8485">
-        <v>54.04757480784798</v>
+        <v>54.04757480784797</v>
       </c>
     </row>
     <row r="8486" spans="1:2">
@@ -68239,7 +68239,7 @@
         <v>8487</v>
       </c>
       <c r="B8487">
-        <v>34.57798649645883</v>
+        <v>34.57798649645882</v>
       </c>
     </row>
     <row r="8488" spans="1:2">
@@ -68423,7 +68423,7 @@
         <v>8510</v>
       </c>
       <c r="B8510">
-        <v>71.36543555338554</v>
+        <v>71.36543555338552</v>
       </c>
     </row>
     <row r="8511" spans="1:2">
@@ -68487,7 +68487,7 @@
         <v>8518</v>
       </c>
       <c r="B8518">
-        <v>0.8216598254117209</v>
+        <v>0.8216598254117208</v>
       </c>
     </row>
     <row r="8519" spans="1:2">
@@ -68567,7 +68567,7 @@
         <v>8528</v>
       </c>
       <c r="B8528">
-        <v>24.23958322953734</v>
+        <v>24.23958322953733</v>
       </c>
     </row>
     <row r="8529" spans="1:2">
@@ -68655,7 +68655,7 @@
         <v>8539</v>
       </c>
       <c r="B8539">
-        <v>14.50578551537422</v>
+        <v>14.50578551537421</v>
       </c>
     </row>
     <row r="8540" spans="1:2">
@@ -68735,7 +68735,7 @@
         <v>8549</v>
       </c>
       <c r="B8549">
-        <v>70.34818597819201</v>
+        <v>70.34818597819199</v>
       </c>
     </row>
     <row r="8550" spans="1:2">
@@ -68751,7 +68751,7 @@
         <v>8551</v>
       </c>
       <c r="B8551">
-        <v>83.22396899073955</v>
+        <v>83.22396899073954</v>
       </c>
     </row>
     <row r="8552" spans="1:2">
@@ -68815,7 +68815,7 @@
         <v>8559</v>
       </c>
       <c r="B8559">
-        <v>30.50488520114345</v>
+        <v>30.50488520114344</v>
       </c>
     </row>
     <row r="8560" spans="1:2">
@@ -68919,7 +68919,7 @@
         <v>8572</v>
       </c>
       <c r="B8572">
-        <v>90.47777026864652</v>
+        <v>90.47777026864649</v>
       </c>
     </row>
     <row r="8573" spans="1:2">
@@ -69103,7 +69103,7 @@
         <v>8595</v>
       </c>
       <c r="B8595">
-        <v>4.221600390605081</v>
+        <v>4.22160039060508</v>
       </c>
     </row>
     <row r="8596" spans="1:2">
@@ -69135,7 +69135,7 @@
         <v>8599</v>
       </c>
       <c r="B8599">
-        <v>9.018382001686918</v>
+        <v>9.018382001686916</v>
       </c>
     </row>
     <row r="8600" spans="1:2">
@@ -69151,7 +69151,7 @@
         <v>8601</v>
       </c>
       <c r="B8601">
-        <v>9.538055567441216</v>
+        <v>9.538055567441214</v>
       </c>
     </row>
     <row r="8602" spans="1:2">
@@ -69175,7 +69175,7 @@
         <v>8604</v>
       </c>
       <c r="B8604">
-        <v>3.161152144312869</v>
+        <v>3.161152144312868</v>
       </c>
     </row>
     <row r="8605" spans="1:2">
@@ -69303,7 +69303,7 @@
         <v>8620</v>
       </c>
       <c r="B8620">
-        <v>67.42656079377706</v>
+        <v>67.42656079377704</v>
       </c>
     </row>
     <row r="8621" spans="1:2">
@@ -69399,7 +69399,7 @@
         <v>8632</v>
       </c>
       <c r="B8632">
-        <v>92.84168126648892</v>
+        <v>92.84168126648891</v>
       </c>
     </row>
     <row r="8633" spans="1:2">
@@ -69527,7 +69527,7 @@
         <v>8648</v>
       </c>
       <c r="B8648">
-        <v>247.8302485652708</v>
+        <v>247.8302485652707</v>
       </c>
     </row>
     <row r="8649" spans="1:2">
@@ -69575,7 +69575,7 @@
         <v>8654</v>
       </c>
       <c r="B8654">
-        <v>49.88948291132081</v>
+        <v>49.8894829113208</v>
       </c>
     </row>
     <row r="8655" spans="1:2">
@@ -69647,7 +69647,7 @@
         <v>8663</v>
       </c>
       <c r="B8663">
-        <v>0.4958791281253829</v>
+        <v>0.4958791281253828</v>
       </c>
     </row>
     <row r="8664" spans="1:2">
@@ -69679,7 +69679,7 @@
         <v>8667</v>
       </c>
       <c r="B8667">
-        <v>0.6575078059471149</v>
+        <v>0.6575078059471148</v>
       </c>
     </row>
     <row r="8668" spans="1:2">
@@ -69695,7 +69695,7 @@
         <v>8669</v>
       </c>
       <c r="B8669">
-        <v>0.592841681266489</v>
+        <v>0.5928416812664888</v>
       </c>
     </row>
     <row r="8670" spans="1:2">
@@ -69703,7 +69703,7 @@
         <v>8670</v>
       </c>
       <c r="B8670">
-        <v>0.9282497621728524</v>
+        <v>0.9282497621728522</v>
       </c>
     </row>
     <row r="8671" spans="1:2">
@@ -69719,7 +69719,7 @@
         <v>8672</v>
       </c>
       <c r="B8672">
-        <v>230.4936312732589</v>
+        <v>230.4936312732588</v>
       </c>
     </row>
     <row r="8673" spans="1:2">
@@ -69823,7 +69823,7 @@
         <v>8685</v>
       </c>
       <c r="B8685">
-        <v>0.5230233677261967</v>
+        <v>0.5230233677261966</v>
       </c>
     </row>
     <row r="8686" spans="1:2">
@@ -69927,7 +69927,7 @@
         <v>8698</v>
       </c>
       <c r="B8698">
-        <v>0.3601637915420871</v>
+        <v>0.360163791542087</v>
       </c>
     </row>
     <row r="8699" spans="1:2">
@@ -69975,7 +69975,7 @@
         <v>8704</v>
       </c>
       <c r="B8704">
-        <v>0.3402203073611826</v>
+        <v>0.3402203073611825</v>
       </c>
     </row>
     <row r="8705" spans="1:2">
@@ -70095,7 +70095,7 @@
         <v>8719</v>
       </c>
       <c r="B8719">
-        <v>0.5194010096883425</v>
+        <v>0.5194010096883424</v>
       </c>
     </row>
     <row r="8720" spans="1:2">
@@ -70119,7 +70119,7 @@
         <v>8722</v>
       </c>
       <c r="B8722">
-        <v>0.6095467304701857</v>
+        <v>0.6095467304701856</v>
       </c>
     </row>
     <row r="8723" spans="1:2">
